--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E08D884-1929-443B-B92D-6F4A8BED1676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4DD5D1-012A-4964-B6A6-39307B3E2784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyPass" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:F560"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -526,25 +526,25 @@
         <v>46</v>
       </c>
       <c r="D2" s="1">
-        <f>IF(C2=46,7000,
-IF(C2=73,3000,
-IF(C2=88,3000,
-IF(C2=9001,3000,
-IF(C2=9008,4000,
-IF(C2=9010,3000))))))</f>
-        <v>7000</v>
+        <f>IF(C2=46,9000,
+IF(C2=73,4000,
+IF(C2=88,4000,
+IF(C2=9001,4000,
+IF(C2=9008,6000,
+IF(C2=9010,4000))))))</f>
+        <v>9000</v>
       </c>
       <c r="E2" s="1">
         <v>46</v>
       </c>
       <c r="F2" s="1">
-        <f>IF(E2=46,7000,
-IF(E2=73,3000,
-IF(E2=88,3000,
-IF(E2=9001,3000,
-IF(E2=9008,4000,
-IF(E2=9010,3000))))))</f>
-        <v>7000</v>
+        <f>IF(E2=46,9000,
+IF(E2=73,4000,
+IF(E2=88,4000,
+IF(E2=9001,4000,
+IF(E2=9008,6000,
+IF(E2=9010,4000))))))</f>
+        <v>9000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -558,25 +558,25 @@
         <v>73</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D7" si="0">IF(C3=46,7000,
-IF(C3=73,3000,
-IF(C3=88,3000,
-IF(C3=9001,3000,
-IF(C3=9008,4000,
-IF(C3=9010,3000))))))</f>
-        <v>3000</v>
+        <f t="shared" ref="D3:D7" si="0">IF(C3=46,9000,
+IF(C3=73,4000,
+IF(C3=88,4000,
+IF(C3=9001,4000,
+IF(C3=9008,6000,
+IF(C3=9010,4000))))))</f>
+        <v>4000</v>
       </c>
       <c r="E3" s="1">
         <v>73</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F66" si="1">IF(E3=46,7000,
-IF(E3=73,3000,
-IF(E3=88,3000,
-IF(E3=9001,3000,
-IF(E3=9008,4000,
-IF(E3=9010,3000))))))</f>
-        <v>3000</v>
+        <f t="shared" ref="F3:F66" si="1">IF(E3=46,9000,
+IF(E3=73,4000,
+IF(E3=88,4000,
+IF(E3=9001,4000,
+IF(E3=9008,6000,
+IF(E3=9010,4000))))))</f>
+        <v>4000</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -591,14 +591,14 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E4" s="1">
         <v>88</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -613,14 +613,14 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E5" s="1">
         <v>9001</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -635,14 +635,14 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E6" s="2">
         <v>9008</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -657,14 +657,14 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E7" s="1">
         <v>9010</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -675,13 +675,13 @@
         <v>2000000</v>
       </c>
       <c r="C8" s="3">
-        <v>8610</v>
+        <v>8614</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>1444</v>
+        <v>1460</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -698,20 +698,20 @@
         <v>46</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ref="D9:D72" si="2">IF(C9=46,7000,
-IF(C9=73,3000,
-IF(C9=88,3000,
-IF(C9=9001,3000,
-IF(C9=9008,4000,
-IF(C9=9010,3000))))))</f>
-        <v>7000</v>
+        <f t="shared" ref="D9:D72" si="2">IF(C9=46,9000,
+IF(C9=73,4000,
+IF(C9=88,4000,
+IF(C9=9001,4000,
+IF(C9=9008,6000,
+IF(C9=9010,4000))))))</f>
+        <v>9000</v>
       </c>
       <c r="E9" s="1">
         <v>46</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -726,14 +726,14 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E10" s="1">
         <v>73</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -748,14 +748,14 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E11" s="1">
         <v>88</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -770,14 +770,14 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E12" s="1">
         <v>9001</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -792,14 +792,14 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E13" s="2">
         <v>9008</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -814,14 +814,14 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E14" s="1">
         <v>9010</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -836,14 +836,14 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E15" s="1">
         <v>46</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -858,14 +858,14 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E16" s="1">
         <v>73</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -880,14 +880,14 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E17" s="1">
         <v>88</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -902,14 +902,14 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E18" s="1">
         <v>9001</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -924,14 +924,14 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E19" s="2">
         <v>9008</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -946,14 +946,14 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E20" s="1">
         <v>9010</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -968,14 +968,14 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E21" s="1">
         <v>46</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -990,14 +990,14 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E22" s="1">
         <v>73</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1012,14 +1012,14 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E23" s="1">
         <v>88</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1034,14 +1034,14 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E24" s="1">
         <v>9001</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1056,14 +1056,14 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E25" s="2">
         <v>9008</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1078,14 +1078,14 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E26" s="1">
         <v>9010</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1100,14 +1100,14 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E27" s="1">
         <v>46</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1122,14 +1122,14 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E28" s="1">
         <v>73</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1144,14 +1144,14 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E29" s="1">
         <v>88</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1166,14 +1166,14 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E30" s="1">
         <v>9001</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1188,14 +1188,14 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E31" s="2">
         <v>9008</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1210,14 +1210,14 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E32" s="1">
         <v>9010</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1232,14 +1232,14 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E33" s="1">
         <v>46</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1254,14 +1254,14 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E34" s="1">
         <v>73</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1276,14 +1276,14 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E35" s="1">
         <v>88</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1298,14 +1298,14 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E36" s="1">
         <v>9001</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1320,14 +1320,14 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E37" s="2">
         <v>9008</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1342,14 +1342,14 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E38" s="1">
         <v>9010</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1364,14 +1364,14 @@
       </c>
       <c r="D39" s="1">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E39" s="1">
         <v>46</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1386,14 +1386,14 @@
       </c>
       <c r="D40" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E40" s="1">
         <v>73</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1408,14 +1408,14 @@
       </c>
       <c r="D41" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E41" s="1">
         <v>88</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1430,14 +1430,14 @@
       </c>
       <c r="D42" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E42" s="1">
         <v>9001</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1452,14 +1452,14 @@
       </c>
       <c r="D43" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E43" s="2">
         <v>9008</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1474,14 +1474,14 @@
       </c>
       <c r="D44" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E44" s="1">
         <v>9010</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="D45" s="1">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E45" s="1">
         <v>46</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1518,14 +1518,14 @@
       </c>
       <c r="D46" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E46" s="1">
         <v>73</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1540,14 +1540,14 @@
       </c>
       <c r="D47" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E47" s="1">
         <v>88</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1562,14 +1562,14 @@
       </c>
       <c r="D48" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E48" s="1">
         <v>9001</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1584,14 +1584,14 @@
       </c>
       <c r="D49" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E49" s="2">
         <v>9008</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1606,14 +1606,14 @@
       </c>
       <c r="D50" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E50" s="1">
         <v>9010</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1628,14 +1628,14 @@
       </c>
       <c r="D51" s="1">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E51" s="1">
         <v>46</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1650,14 +1650,14 @@
       </c>
       <c r="D52" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E52" s="1">
         <v>73</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1672,14 +1672,14 @@
       </c>
       <c r="D53" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E53" s="1">
         <v>88</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1694,14 +1694,14 @@
       </c>
       <c r="D54" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E54" s="1">
         <v>9001</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1716,14 +1716,14 @@
       </c>
       <c r="D55" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E55" s="2">
         <v>9008</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1738,14 +1738,14 @@
       </c>
       <c r="D56" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E56" s="1">
         <v>9010</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1760,14 +1760,14 @@
       </c>
       <c r="D57" s="1">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E57" s="1">
         <v>46</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1782,14 +1782,14 @@
       </c>
       <c r="D58" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E58" s="1">
         <v>73</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1804,14 +1804,14 @@
       </c>
       <c r="D59" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E59" s="1">
         <v>88</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1826,14 +1826,14 @@
       </c>
       <c r="D60" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E60" s="1">
         <v>9001</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1848,14 +1848,14 @@
       </c>
       <c r="D61" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E61" s="2">
         <v>9008</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -1870,14 +1870,14 @@
       </c>
       <c r="D62" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E62" s="1">
         <v>9010</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -1892,14 +1892,14 @@
       </c>
       <c r="D63" s="1">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E63" s="1">
         <v>46</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -1914,14 +1914,14 @@
       </c>
       <c r="D64" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E64" s="1">
         <v>73</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1936,14 +1936,14 @@
       </c>
       <c r="D65" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E65" s="1">
         <v>88</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -1958,14 +1958,14 @@
       </c>
       <c r="D66" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E66" s="1">
         <v>9001</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1980,19 +1980,19 @@
       </c>
       <c r="D67" s="1">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E67" s="2">
         <v>9008</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" ref="F67:F130" si="3">IF(E67=46,7000,
-IF(E67=73,3000,
-IF(E67=88,3000,
-IF(E67=9001,3000,
-IF(E67=9008,4000,
-IF(E67=9010,3000))))))</f>
-        <v>4000</v>
+        <f t="shared" ref="F67:F130" si="3">IF(E67=46,9000,
+IF(E67=73,4000,
+IF(E67=88,4000,
+IF(E67=9001,4000,
+IF(E67=9008,6000,
+IF(E67=9010,4000))))))</f>
+        <v>6000</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2007,14 +2007,14 @@
       </c>
       <c r="D68" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E68" s="1">
         <v>9010</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2029,14 +2029,14 @@
       </c>
       <c r="D69" s="1">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E69" s="1">
         <v>46</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2051,14 +2051,14 @@
       </c>
       <c r="D70" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E70" s="1">
         <v>73</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2073,14 +2073,14 @@
       </c>
       <c r="D71" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E71" s="1">
         <v>88</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2095,14 +2095,14 @@
       </c>
       <c r="D72" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E72" s="1">
         <v>9001</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2116,20 +2116,20 @@
         <v>9008</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" ref="D73:D136" si="4">IF(C73=46,7000,
-IF(C73=73,3000,
-IF(C73=88,3000,
-IF(C73=9001,3000,
-IF(C73=9008,4000,
-IF(C73=9010,3000))))))</f>
-        <v>4000</v>
+        <f t="shared" ref="D73:D136" si="4">IF(C73=46,9000,
+IF(C73=73,4000,
+IF(C73=88,4000,
+IF(C73=9001,4000,
+IF(C73=9008,6000,
+IF(C73=9010,4000))))))</f>
+        <v>6000</v>
       </c>
       <c r="E73" s="2">
         <v>9008</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2144,14 +2144,14 @@
       </c>
       <c r="D74" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E74" s="1">
         <v>9010</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2166,14 +2166,14 @@
       </c>
       <c r="D75" s="1">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E75" s="1">
         <v>46</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2188,14 +2188,14 @@
       </c>
       <c r="D76" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E76" s="1">
         <v>73</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2210,14 +2210,14 @@
       </c>
       <c r="D77" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E77" s="1">
         <v>88</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2232,14 +2232,14 @@
       </c>
       <c r="D78" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E78" s="1">
         <v>9001</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2254,14 +2254,14 @@
       </c>
       <c r="D79" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E79" s="2">
         <v>9008</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2276,14 +2276,14 @@
       </c>
       <c r="D80" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E80" s="1">
         <v>9010</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2298,14 +2298,14 @@
       </c>
       <c r="D81" s="1">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E81" s="1">
         <v>46</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2320,14 +2320,14 @@
       </c>
       <c r="D82" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E82" s="1">
         <v>73</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2342,14 +2342,14 @@
       </c>
       <c r="D83" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E83" s="1">
         <v>88</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2364,14 +2364,14 @@
       </c>
       <c r="D84" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E84" s="1">
         <v>9001</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2386,14 +2386,14 @@
       </c>
       <c r="D85" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E85" s="2">
         <v>9008</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2408,14 +2408,14 @@
       </c>
       <c r="D86" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E86" s="1">
         <v>9010</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2430,14 +2430,14 @@
       </c>
       <c r="D87" s="1">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E87" s="1">
         <v>46</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2452,14 +2452,14 @@
       </c>
       <c r="D88" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E88" s="1">
         <v>73</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2474,14 +2474,14 @@
       </c>
       <c r="D89" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E89" s="1">
         <v>88</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -2496,14 +2496,14 @@
       </c>
       <c r="D90" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E90" s="1">
         <v>9001</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -2518,14 +2518,14 @@
       </c>
       <c r="D91" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E91" s="2">
         <v>9008</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -2540,14 +2540,14 @@
       </c>
       <c r="D92" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E92" s="1">
         <v>9010</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -2562,14 +2562,14 @@
       </c>
       <c r="D93" s="1">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E93" s="1">
         <v>46</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -2584,14 +2584,14 @@
       </c>
       <c r="D94" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E94" s="1">
         <v>73</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -2606,14 +2606,14 @@
       </c>
       <c r="D95" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E95" s="1">
         <v>88</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -2628,14 +2628,14 @@
       </c>
       <c r="D96" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E96" s="1">
         <v>9001</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -2650,14 +2650,14 @@
       </c>
       <c r="D97" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E97" s="2">
         <v>9008</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -2672,14 +2672,14 @@
       </c>
       <c r="D98" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E98" s="1">
         <v>9010</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -2694,14 +2694,14 @@
       </c>
       <c r="D99" s="1">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E99" s="1">
         <v>46</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -2716,14 +2716,14 @@
       </c>
       <c r="D100" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E100" s="1">
         <v>73</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -2738,14 +2738,14 @@
       </c>
       <c r="D101" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E101" s="1">
         <v>88</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -2760,14 +2760,14 @@
       </c>
       <c r="D102" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E102" s="1">
         <v>9001</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -2782,14 +2782,14 @@
       </c>
       <c r="D103" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E103" s="2">
         <v>9008</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -2804,14 +2804,14 @@
       </c>
       <c r="D104" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E104" s="1">
         <v>9010</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -2826,14 +2826,14 @@
       </c>
       <c r="D105" s="1">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E105" s="1">
         <v>46</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -2848,14 +2848,14 @@
       </c>
       <c r="D106" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E106" s="1">
         <v>73</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -2870,14 +2870,14 @@
       </c>
       <c r="D107" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E107" s="1">
         <v>88</v>
       </c>
       <c r="F107" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -2892,14 +2892,14 @@
       </c>
       <c r="D108" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E108" s="1">
         <v>9001</v>
       </c>
       <c r="F108" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -2914,14 +2914,14 @@
       </c>
       <c r="D109" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E109" s="2">
         <v>9008</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -2936,14 +2936,14 @@
       </c>
       <c r="D110" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E110" s="1">
         <v>9010</v>
       </c>
       <c r="F110" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -2958,14 +2958,14 @@
       </c>
       <c r="D111" s="1">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E111" s="1">
         <v>46</v>
       </c>
       <c r="F111" s="1">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -2980,14 +2980,14 @@
       </c>
       <c r="D112" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E112" s="1">
         <v>73</v>
       </c>
       <c r="F112" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -3002,14 +3002,14 @@
       </c>
       <c r="D113" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E113" s="1">
         <v>88</v>
       </c>
       <c r="F113" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3024,14 +3024,14 @@
       </c>
       <c r="D114" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E114" s="1">
         <v>9001</v>
       </c>
       <c r="F114" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3046,14 +3046,14 @@
       </c>
       <c r="D115" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E115" s="2">
         <v>9008</v>
       </c>
       <c r="F115" s="1">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3068,14 +3068,14 @@
       </c>
       <c r="D116" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E116" s="1">
         <v>9010</v>
       </c>
       <c r="F116" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3090,14 +3090,14 @@
       </c>
       <c r="D117" s="1">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E117" s="1">
         <v>46</v>
       </c>
       <c r="F117" s="1">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3112,14 +3112,14 @@
       </c>
       <c r="D118" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E118" s="1">
         <v>73</v>
       </c>
       <c r="F118" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3134,14 +3134,14 @@
       </c>
       <c r="D119" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E119" s="1">
         <v>88</v>
       </c>
       <c r="F119" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -3156,14 +3156,14 @@
       </c>
       <c r="D120" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E120" s="1">
         <v>9001</v>
       </c>
       <c r="F120" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -3178,14 +3178,14 @@
       </c>
       <c r="D121" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E121" s="2">
         <v>9008</v>
       </c>
       <c r="F121" s="1">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -3200,14 +3200,14 @@
       </c>
       <c r="D122" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E122" s="1">
         <v>9010</v>
       </c>
       <c r="F122" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -3222,14 +3222,14 @@
       </c>
       <c r="D123" s="1">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E123" s="1">
         <v>46</v>
       </c>
       <c r="F123" s="1">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -3244,14 +3244,14 @@
       </c>
       <c r="D124" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E124" s="1">
         <v>73</v>
       </c>
       <c r="F124" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -3266,14 +3266,14 @@
       </c>
       <c r="D125" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E125" s="1">
         <v>88</v>
       </c>
       <c r="F125" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -3288,14 +3288,14 @@
       </c>
       <c r="D126" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E126" s="1">
         <v>9001</v>
       </c>
       <c r="F126" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -3310,14 +3310,14 @@
       </c>
       <c r="D127" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E127" s="2">
         <v>9008</v>
       </c>
       <c r="F127" s="1">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3332,14 +3332,14 @@
       </c>
       <c r="D128" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E128" s="1">
         <v>9010</v>
       </c>
       <c r="F128" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3354,14 +3354,14 @@
       </c>
       <c r="D129" s="1">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E129" s="1">
         <v>46</v>
       </c>
       <c r="F129" s="1">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -3376,14 +3376,14 @@
       </c>
       <c r="D130" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E130" s="1">
         <v>73</v>
       </c>
       <c r="F130" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -3398,19 +3398,19 @@
       </c>
       <c r="D131" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E131" s="1">
         <v>88</v>
       </c>
       <c r="F131" s="1">
-        <f t="shared" ref="F131:F194" si="5">IF(E131=46,7000,
-IF(E131=73,3000,
-IF(E131=88,3000,
-IF(E131=9001,3000,
-IF(E131=9008,4000,
-IF(E131=9010,3000))))))</f>
-        <v>3000</v>
+        <f t="shared" ref="F131:F194" si="5">IF(E131=46,9000,
+IF(E131=73,4000,
+IF(E131=88,4000,
+IF(E131=9001,4000,
+IF(E131=9008,6000,
+IF(E131=9010,4000))))))</f>
+        <v>4000</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -3425,14 +3425,14 @@
       </c>
       <c r="D132" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E132" s="1">
         <v>9001</v>
       </c>
       <c r="F132" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3447,14 +3447,14 @@
       </c>
       <c r="D133" s="1">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E133" s="2">
         <v>9008</v>
       </c>
       <c r="F133" s="1">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -3469,14 +3469,14 @@
       </c>
       <c r="D134" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E134" s="1">
         <v>9010</v>
       </c>
       <c r="F134" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -3491,14 +3491,14 @@
       </c>
       <c r="D135" s="1">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E135" s="1">
         <v>46</v>
       </c>
       <c r="F135" s="1">
         <f t="shared" si="5"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -3513,14 +3513,14 @@
       </c>
       <c r="D136" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E136" s="1">
         <v>73</v>
       </c>
       <c r="F136" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -3534,20 +3534,20 @@
         <v>88</v>
       </c>
       <c r="D137" s="1">
-        <f t="shared" ref="D137:D200" si="6">IF(C137=46,7000,
-IF(C137=73,3000,
-IF(C137=88,3000,
-IF(C137=9001,3000,
-IF(C137=9008,4000,
-IF(C137=9010,3000))))))</f>
-        <v>3000</v>
+        <f t="shared" ref="D137:D200" si="6">IF(C137=46,9000,
+IF(C137=73,4000,
+IF(C137=88,4000,
+IF(C137=9001,4000,
+IF(C137=9008,6000,
+IF(C137=9010,4000))))))</f>
+        <v>4000</v>
       </c>
       <c r="E137" s="1">
         <v>88</v>
       </c>
       <c r="F137" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -3562,14 +3562,14 @@
       </c>
       <c r="D138" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E138" s="1">
         <v>9001</v>
       </c>
       <c r="F138" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -3584,14 +3584,14 @@
       </c>
       <c r="D139" s="1">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E139" s="2">
         <v>9008</v>
       </c>
       <c r="F139" s="1">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -3606,14 +3606,14 @@
       </c>
       <c r="D140" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E140" s="1">
         <v>9010</v>
       </c>
       <c r="F140" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -3628,14 +3628,14 @@
       </c>
       <c r="D141" s="1">
         <f t="shared" si="6"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E141" s="1">
         <v>46</v>
       </c>
       <c r="F141" s="1">
         <f t="shared" si="5"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -3650,14 +3650,14 @@
       </c>
       <c r="D142" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E142" s="1">
         <v>73</v>
       </c>
       <c r="F142" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -3672,14 +3672,14 @@
       </c>
       <c r="D143" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E143" s="1">
         <v>88</v>
       </c>
       <c r="F143" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -3694,14 +3694,14 @@
       </c>
       <c r="D144" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E144" s="1">
         <v>9001</v>
       </c>
       <c r="F144" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -3716,14 +3716,14 @@
       </c>
       <c r="D145" s="1">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E145" s="2">
         <v>9008</v>
       </c>
       <c r="F145" s="1">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -3738,14 +3738,14 @@
       </c>
       <c r="D146" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E146" s="1">
         <v>9010</v>
       </c>
       <c r="F146" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -3760,14 +3760,14 @@
       </c>
       <c r="D147" s="1">
         <f t="shared" si="6"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E147" s="1">
         <v>46</v>
       </c>
       <c r="F147" s="1">
         <f t="shared" si="5"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -3782,14 +3782,14 @@
       </c>
       <c r="D148" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E148" s="1">
         <v>73</v>
       </c>
       <c r="F148" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -3804,14 +3804,14 @@
       </c>
       <c r="D149" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E149" s="1">
         <v>88</v>
       </c>
       <c r="F149" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -3826,14 +3826,14 @@
       </c>
       <c r="D150" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E150" s="1">
         <v>9001</v>
       </c>
       <c r="F150" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -3848,14 +3848,14 @@
       </c>
       <c r="D151" s="1">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E151" s="2">
         <v>9008</v>
       </c>
       <c r="F151" s="1">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -3870,14 +3870,14 @@
       </c>
       <c r="D152" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E152" s="1">
         <v>9010</v>
       </c>
       <c r="F152" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -3892,14 +3892,14 @@
       </c>
       <c r="D153" s="1">
         <f t="shared" si="6"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E153" s="1">
         <v>46</v>
       </c>
       <c r="F153" s="1">
         <f t="shared" si="5"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -3914,14 +3914,14 @@
       </c>
       <c r="D154" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E154" s="1">
         <v>73</v>
       </c>
       <c r="F154" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -3936,14 +3936,14 @@
       </c>
       <c r="D155" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E155" s="1">
         <v>88</v>
       </c>
       <c r="F155" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -3958,14 +3958,14 @@
       </c>
       <c r="D156" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E156" s="1">
         <v>9001</v>
       </c>
       <c r="F156" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -3980,14 +3980,14 @@
       </c>
       <c r="D157" s="1">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E157" s="2">
         <v>9008</v>
       </c>
       <c r="F157" s="1">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -4002,14 +4002,14 @@
       </c>
       <c r="D158" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E158" s="1">
         <v>9010</v>
       </c>
       <c r="F158" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -4024,14 +4024,14 @@
       </c>
       <c r="D159" s="1">
         <f t="shared" si="6"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E159" s="1">
         <v>46</v>
       </c>
       <c r="F159" s="1">
         <f t="shared" si="5"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -4046,14 +4046,14 @@
       </c>
       <c r="D160" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E160" s="1">
         <v>73</v>
       </c>
       <c r="F160" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4068,14 +4068,14 @@
       </c>
       <c r="D161" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E161" s="1">
         <v>88</v>
       </c>
       <c r="F161" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -4090,14 +4090,14 @@
       </c>
       <c r="D162" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E162" s="1">
         <v>9001</v>
       </c>
       <c r="F162" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -4112,14 +4112,14 @@
       </c>
       <c r="D163" s="1">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E163" s="2">
         <v>9008</v>
       </c>
       <c r="F163" s="1">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -4134,14 +4134,14 @@
       </c>
       <c r="D164" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E164" s="1">
         <v>9010</v>
       </c>
       <c r="F164" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -4156,14 +4156,14 @@
       </c>
       <c r="D165" s="1">
         <f t="shared" si="6"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E165" s="1">
         <v>46</v>
       </c>
       <c r="F165" s="1">
         <f t="shared" si="5"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -4178,14 +4178,14 @@
       </c>
       <c r="D166" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E166" s="1">
         <v>73</v>
       </c>
       <c r="F166" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -4200,14 +4200,14 @@
       </c>
       <c r="D167" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E167" s="1">
         <v>88</v>
       </c>
       <c r="F167" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -4222,14 +4222,14 @@
       </c>
       <c r="D168" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E168" s="1">
         <v>9001</v>
       </c>
       <c r="F168" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -4244,14 +4244,14 @@
       </c>
       <c r="D169" s="1">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E169" s="2">
         <v>9008</v>
       </c>
       <c r="F169" s="1">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -4266,14 +4266,14 @@
       </c>
       <c r="D170" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E170" s="1">
         <v>9010</v>
       </c>
       <c r="F170" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -4288,14 +4288,14 @@
       </c>
       <c r="D171" s="1">
         <f t="shared" si="6"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E171" s="1">
         <v>46</v>
       </c>
       <c r="F171" s="1">
         <f t="shared" si="5"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -4310,14 +4310,14 @@
       </c>
       <c r="D172" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E172" s="1">
         <v>73</v>
       </c>
       <c r="F172" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -4332,14 +4332,14 @@
       </c>
       <c r="D173" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E173" s="1">
         <v>88</v>
       </c>
       <c r="F173" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -4354,14 +4354,14 @@
       </c>
       <c r="D174" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E174" s="1">
         <v>9001</v>
       </c>
       <c r="F174" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -4376,14 +4376,14 @@
       </c>
       <c r="D175" s="1">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E175" s="2">
         <v>9008</v>
       </c>
       <c r="F175" s="1">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -4398,14 +4398,14 @@
       </c>
       <c r="D176" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E176" s="1">
         <v>9010</v>
       </c>
       <c r="F176" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -4420,14 +4420,14 @@
       </c>
       <c r="D177" s="1">
         <f t="shared" si="6"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E177" s="1">
         <v>46</v>
       </c>
       <c r="F177" s="1">
         <f t="shared" si="5"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -4442,14 +4442,14 @@
       </c>
       <c r="D178" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E178" s="1">
         <v>73</v>
       </c>
       <c r="F178" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -4464,14 +4464,14 @@
       </c>
       <c r="D179" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E179" s="1">
         <v>88</v>
       </c>
       <c r="F179" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -4486,14 +4486,14 @@
       </c>
       <c r="D180" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E180" s="1">
         <v>9001</v>
       </c>
       <c r="F180" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -4508,14 +4508,14 @@
       </c>
       <c r="D181" s="1">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E181" s="2">
         <v>9008</v>
       </c>
       <c r="F181" s="1">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -4530,14 +4530,14 @@
       </c>
       <c r="D182" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E182" s="1">
         <v>9010</v>
       </c>
       <c r="F182" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -4552,14 +4552,14 @@
       </c>
       <c r="D183" s="1">
         <f t="shared" si="6"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E183" s="1">
         <v>46</v>
       </c>
       <c r="F183" s="1">
         <f t="shared" si="5"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -4574,14 +4574,14 @@
       </c>
       <c r="D184" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E184" s="1">
         <v>73</v>
       </c>
       <c r="F184" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -4596,14 +4596,14 @@
       </c>
       <c r="D185" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E185" s="1">
         <v>88</v>
       </c>
       <c r="F185" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -4618,14 +4618,14 @@
       </c>
       <c r="D186" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E186" s="1">
         <v>9001</v>
       </c>
       <c r="F186" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -4640,14 +4640,14 @@
       </c>
       <c r="D187" s="1">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E187" s="2">
         <v>9008</v>
       </c>
       <c r="F187" s="1">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -4662,14 +4662,14 @@
       </c>
       <c r="D188" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E188" s="1">
         <v>9010</v>
       </c>
       <c r="F188" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -4684,14 +4684,14 @@
       </c>
       <c r="D189" s="1">
         <f t="shared" si="6"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E189" s="1">
         <v>46</v>
       </c>
       <c r="F189" s="1">
         <f t="shared" si="5"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -4706,14 +4706,14 @@
       </c>
       <c r="D190" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E190" s="1">
         <v>73</v>
       </c>
       <c r="F190" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -4728,14 +4728,14 @@
       </c>
       <c r="D191" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E191" s="1">
         <v>88</v>
       </c>
       <c r="F191" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -4750,14 +4750,14 @@
       </c>
       <c r="D192" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E192" s="1">
         <v>9001</v>
       </c>
       <c r="F192" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -4772,14 +4772,14 @@
       </c>
       <c r="D193" s="1">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E193" s="2">
         <v>9008</v>
       </c>
       <c r="F193" s="1">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -4794,14 +4794,14 @@
       </c>
       <c r="D194" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E194" s="1">
         <v>9010</v>
       </c>
       <c r="F194" s="1">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -4816,19 +4816,19 @@
       </c>
       <c r="D195" s="1">
         <f t="shared" si="6"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E195" s="1">
         <v>46</v>
       </c>
       <c r="F195" s="1">
-        <f t="shared" ref="F195:F258" si="7">IF(E195=46,7000,
-IF(E195=73,3000,
-IF(E195=88,3000,
-IF(E195=9001,3000,
-IF(E195=9008,4000,
-IF(E195=9010,3000))))))</f>
-        <v>7000</v>
+        <f t="shared" ref="F195:F258" si="7">IF(E195=46,9000,
+IF(E195=73,4000,
+IF(E195=88,4000,
+IF(E195=9001,4000,
+IF(E195=9008,6000,
+IF(E195=9010,4000))))))</f>
+        <v>9000</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -4843,14 +4843,14 @@
       </c>
       <c r="D196" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E196" s="1">
         <v>73</v>
       </c>
       <c r="F196" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -4865,14 +4865,14 @@
       </c>
       <c r="D197" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E197" s="1">
         <v>88</v>
       </c>
       <c r="F197" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -4887,14 +4887,14 @@
       </c>
       <c r="D198" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E198" s="1">
         <v>9001</v>
       </c>
       <c r="F198" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -4909,14 +4909,14 @@
       </c>
       <c r="D199" s="1">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E199" s="2">
         <v>9008</v>
       </c>
       <c r="F199" s="1">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -4931,14 +4931,14 @@
       </c>
       <c r="D200" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E200" s="1">
         <v>9010</v>
       </c>
       <c r="F200" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -4952,20 +4952,20 @@
         <v>46</v>
       </c>
       <c r="D201" s="1">
-        <f t="shared" ref="D201:D264" si="8">IF(C201=46,7000,
-IF(C201=73,3000,
-IF(C201=88,3000,
-IF(C201=9001,3000,
-IF(C201=9008,4000,
-IF(C201=9010,3000))))))</f>
-        <v>7000</v>
+        <f t="shared" ref="D201:D264" si="8">IF(C201=46,9000,
+IF(C201=73,4000,
+IF(C201=88,4000,
+IF(C201=9001,4000,
+IF(C201=9008,6000,
+IF(C201=9010,4000))))))</f>
+        <v>9000</v>
       </c>
       <c r="E201" s="1">
         <v>46</v>
       </c>
       <c r="F201" s="1">
         <f t="shared" si="7"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -4980,14 +4980,14 @@
       </c>
       <c r="D202" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E202" s="1">
         <v>73</v>
       </c>
       <c r="F202" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -5002,14 +5002,14 @@
       </c>
       <c r="D203" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E203" s="1">
         <v>88</v>
       </c>
       <c r="F203" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -5024,14 +5024,14 @@
       </c>
       <c r="D204" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E204" s="1">
         <v>9001</v>
       </c>
       <c r="F204" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -5046,14 +5046,14 @@
       </c>
       <c r="D205" s="1">
         <f t="shared" si="8"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E205" s="2">
         <v>9008</v>
       </c>
       <c r="F205" s="1">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -5068,14 +5068,14 @@
       </c>
       <c r="D206" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E206" s="1">
         <v>9010</v>
       </c>
       <c r="F206" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -5090,14 +5090,14 @@
       </c>
       <c r="D207" s="1">
         <f t="shared" si="8"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E207" s="1">
         <v>46</v>
       </c>
       <c r="F207" s="1">
         <f t="shared" si="7"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -5112,14 +5112,14 @@
       </c>
       <c r="D208" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E208" s="1">
         <v>73</v>
       </c>
       <c r="F208" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -5134,14 +5134,14 @@
       </c>
       <c r="D209" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E209" s="1">
         <v>88</v>
       </c>
       <c r="F209" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -5156,14 +5156,14 @@
       </c>
       <c r="D210" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E210" s="1">
         <v>9001</v>
       </c>
       <c r="F210" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -5178,14 +5178,14 @@
       </c>
       <c r="D211" s="1">
         <f t="shared" si="8"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E211" s="2">
         <v>9008</v>
       </c>
       <c r="F211" s="1">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -5200,14 +5200,14 @@
       </c>
       <c r="D212" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E212" s="1">
         <v>9010</v>
       </c>
       <c r="F212" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -5222,14 +5222,14 @@
       </c>
       <c r="D213" s="1">
         <f t="shared" si="8"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E213" s="1">
         <v>46</v>
       </c>
       <c r="F213" s="1">
         <f t="shared" si="7"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -5244,14 +5244,14 @@
       </c>
       <c r="D214" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E214" s="1">
         <v>73</v>
       </c>
       <c r="F214" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -5266,14 +5266,14 @@
       </c>
       <c r="D215" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E215" s="1">
         <v>88</v>
       </c>
       <c r="F215" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -5288,14 +5288,14 @@
       </c>
       <c r="D216" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E216" s="1">
         <v>9001</v>
       </c>
       <c r="F216" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -5310,14 +5310,14 @@
       </c>
       <c r="D217" s="1">
         <f t="shared" si="8"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E217" s="2">
         <v>9008</v>
       </c>
       <c r="F217" s="1">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -5332,14 +5332,14 @@
       </c>
       <c r="D218" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E218" s="1">
         <v>9010</v>
       </c>
       <c r="F218" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -5354,14 +5354,14 @@
       </c>
       <c r="D219" s="1">
         <f t="shared" si="8"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E219" s="1">
         <v>46</v>
       </c>
       <c r="F219" s="1">
         <f t="shared" si="7"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -5376,14 +5376,14 @@
       </c>
       <c r="D220" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E220" s="1">
         <v>73</v>
       </c>
       <c r="F220" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -5398,14 +5398,14 @@
       </c>
       <c r="D221" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E221" s="1">
         <v>88</v>
       </c>
       <c r="F221" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -5420,14 +5420,14 @@
       </c>
       <c r="D222" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E222" s="1">
         <v>9001</v>
       </c>
       <c r="F222" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -5442,14 +5442,14 @@
       </c>
       <c r="D223" s="1">
         <f t="shared" si="8"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E223" s="2">
         <v>9008</v>
       </c>
       <c r="F223" s="1">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -5464,14 +5464,14 @@
       </c>
       <c r="D224" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E224" s="1">
         <v>9010</v>
       </c>
       <c r="F224" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -5486,14 +5486,14 @@
       </c>
       <c r="D225" s="1">
         <f t="shared" si="8"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E225" s="1">
         <v>46</v>
       </c>
       <c r="F225" s="1">
         <f t="shared" si="7"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -5508,14 +5508,14 @@
       </c>
       <c r="D226" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E226" s="1">
         <v>73</v>
       </c>
       <c r="F226" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -5530,14 +5530,14 @@
       </c>
       <c r="D227" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E227" s="1">
         <v>88</v>
       </c>
       <c r="F227" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -5552,14 +5552,14 @@
       </c>
       <c r="D228" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E228" s="1">
         <v>9001</v>
       </c>
       <c r="F228" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -5574,14 +5574,14 @@
       </c>
       <c r="D229" s="1">
         <f t="shared" si="8"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E229" s="2">
         <v>9008</v>
       </c>
       <c r="F229" s="1">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -5596,14 +5596,14 @@
       </c>
       <c r="D230" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E230" s="1">
         <v>9010</v>
       </c>
       <c r="F230" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -5618,14 +5618,14 @@
       </c>
       <c r="D231" s="1">
         <f t="shared" si="8"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E231" s="1">
         <v>46</v>
       </c>
       <c r="F231" s="1">
         <f t="shared" si="7"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -5640,14 +5640,14 @@
       </c>
       <c r="D232" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E232" s="1">
         <v>73</v>
       </c>
       <c r="F232" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -5662,14 +5662,14 @@
       </c>
       <c r="D233" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E233" s="1">
         <v>88</v>
       </c>
       <c r="F233" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -5684,14 +5684,14 @@
       </c>
       <c r="D234" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E234" s="1">
         <v>9001</v>
       </c>
       <c r="F234" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -5706,14 +5706,14 @@
       </c>
       <c r="D235" s="1">
         <f t="shared" si="8"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E235" s="2">
         <v>9008</v>
       </c>
       <c r="F235" s="1">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -5728,14 +5728,14 @@
       </c>
       <c r="D236" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E236" s="1">
         <v>9010</v>
       </c>
       <c r="F236" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -5750,14 +5750,14 @@
       </c>
       <c r="D237" s="1">
         <f t="shared" si="8"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E237" s="1">
         <v>46</v>
       </c>
       <c r="F237" s="1">
         <f t="shared" si="7"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -5772,14 +5772,14 @@
       </c>
       <c r="D238" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E238" s="1">
         <v>73</v>
       </c>
       <c r="F238" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -5794,14 +5794,14 @@
       </c>
       <c r="D239" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E239" s="1">
         <v>88</v>
       </c>
       <c r="F239" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -5816,14 +5816,14 @@
       </c>
       <c r="D240" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E240" s="1">
         <v>9001</v>
       </c>
       <c r="F240" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -5838,14 +5838,14 @@
       </c>
       <c r="D241" s="1">
         <f t="shared" si="8"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E241" s="2">
         <v>9008</v>
       </c>
       <c r="F241" s="1">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -5860,14 +5860,14 @@
       </c>
       <c r="D242" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E242" s="1">
         <v>9010</v>
       </c>
       <c r="F242" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -5882,14 +5882,14 @@
       </c>
       <c r="D243" s="1">
         <f t="shared" si="8"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E243" s="1">
         <v>46</v>
       </c>
       <c r="F243" s="1">
         <f t="shared" si="7"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -5904,14 +5904,14 @@
       </c>
       <c r="D244" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E244" s="1">
         <v>73</v>
       </c>
       <c r="F244" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -5926,14 +5926,14 @@
       </c>
       <c r="D245" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E245" s="1">
         <v>88</v>
       </c>
       <c r="F245" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -5948,14 +5948,14 @@
       </c>
       <c r="D246" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E246" s="1">
         <v>9001</v>
       </c>
       <c r="F246" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -5970,14 +5970,14 @@
       </c>
       <c r="D247" s="1">
         <f t="shared" si="8"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E247" s="2">
         <v>9008</v>
       </c>
       <c r="F247" s="1">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -5992,14 +5992,14 @@
       </c>
       <c r="D248" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E248" s="1">
         <v>9010</v>
       </c>
       <c r="F248" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -6014,14 +6014,14 @@
       </c>
       <c r="D249" s="1">
         <f t="shared" si="8"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E249" s="1">
         <v>46</v>
       </c>
       <c r="F249" s="1">
         <f t="shared" si="7"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -6036,14 +6036,14 @@
       </c>
       <c r="D250" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E250" s="1">
         <v>73</v>
       </c>
       <c r="F250" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -6058,14 +6058,14 @@
       </c>
       <c r="D251" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E251" s="1">
         <v>88</v>
       </c>
       <c r="F251" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -6080,14 +6080,14 @@
       </c>
       <c r="D252" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E252" s="1">
         <v>9001</v>
       </c>
       <c r="F252" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -6102,14 +6102,14 @@
       </c>
       <c r="D253" s="1">
         <f t="shared" si="8"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E253" s="2">
         <v>9008</v>
       </c>
       <c r="F253" s="1">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -6124,14 +6124,14 @@
       </c>
       <c r="D254" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E254" s="1">
         <v>9010</v>
       </c>
       <c r="F254" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -6146,14 +6146,14 @@
       </c>
       <c r="D255" s="1">
         <f t="shared" si="8"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E255" s="1">
         <v>46</v>
       </c>
       <c r="F255" s="1">
         <f t="shared" si="7"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -6168,14 +6168,14 @@
       </c>
       <c r="D256" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E256" s="1">
         <v>73</v>
       </c>
       <c r="F256" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -6190,14 +6190,14 @@
       </c>
       <c r="D257" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E257" s="1">
         <v>88</v>
       </c>
       <c r="F257" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -6212,14 +6212,14 @@
       </c>
       <c r="D258" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E258" s="1">
         <v>9001</v>
       </c>
       <c r="F258" s="1">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -6234,19 +6234,19 @@
       </c>
       <c r="D259" s="1">
         <f t="shared" si="8"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E259" s="2">
         <v>9008</v>
       </c>
       <c r="F259" s="1">
-        <f t="shared" ref="F259:F322" si="9">IF(E259=46,7000,
-IF(E259=73,3000,
-IF(E259=88,3000,
-IF(E259=9001,3000,
-IF(E259=9008,4000,
-IF(E259=9010,3000))))))</f>
-        <v>4000</v>
+        <f t="shared" ref="F259:F322" si="9">IF(E259=46,9000,
+IF(E259=73,4000,
+IF(E259=88,4000,
+IF(E259=9001,4000,
+IF(E259=9008,6000,
+IF(E259=9010,4000))))))</f>
+        <v>6000</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -6261,14 +6261,14 @@
       </c>
       <c r="D260" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E260" s="1">
         <v>9010</v>
       </c>
       <c r="F260" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -6283,14 +6283,14 @@
       </c>
       <c r="D261" s="1">
         <f t="shared" si="8"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E261" s="1">
         <v>46</v>
       </c>
       <c r="F261" s="1">
         <f t="shared" si="9"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -6305,14 +6305,14 @@
       </c>
       <c r="D262" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E262" s="1">
         <v>73</v>
       </c>
       <c r="F262" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -6327,14 +6327,14 @@
       </c>
       <c r="D263" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E263" s="1">
         <v>88</v>
       </c>
       <c r="F263" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -6349,14 +6349,14 @@
       </c>
       <c r="D264" s="1">
         <f t="shared" si="8"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E264" s="1">
         <v>9001</v>
       </c>
       <c r="F264" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -6370,20 +6370,20 @@
         <v>9008</v>
       </c>
       <c r="D265" s="1">
-        <f t="shared" ref="D265:D328" si="10">IF(C265=46,7000,
-IF(C265=73,3000,
-IF(C265=88,3000,
-IF(C265=9001,3000,
-IF(C265=9008,4000,
-IF(C265=9010,3000))))))</f>
-        <v>4000</v>
+        <f t="shared" ref="D265:D328" si="10">IF(C265=46,9000,
+IF(C265=73,4000,
+IF(C265=88,4000,
+IF(C265=9001,4000,
+IF(C265=9008,6000,
+IF(C265=9010,4000))))))</f>
+        <v>6000</v>
       </c>
       <c r="E265" s="2">
         <v>9008</v>
       </c>
       <c r="F265" s="1">
         <f t="shared" si="9"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -6398,14 +6398,14 @@
       </c>
       <c r="D266" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E266" s="1">
         <v>9010</v>
       </c>
       <c r="F266" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -6420,14 +6420,14 @@
       </c>
       <c r="D267" s="1">
         <f t="shared" si="10"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E267" s="1">
         <v>46</v>
       </c>
       <c r="F267" s="1">
         <f t="shared" si="9"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -6442,14 +6442,14 @@
       </c>
       <c r="D268" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E268" s="1">
         <v>73</v>
       </c>
       <c r="F268" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -6464,14 +6464,14 @@
       </c>
       <c r="D269" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E269" s="1">
         <v>88</v>
       </c>
       <c r="F269" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -6486,14 +6486,14 @@
       </c>
       <c r="D270" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E270" s="1">
         <v>9001</v>
       </c>
       <c r="F270" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -6508,14 +6508,14 @@
       </c>
       <c r="D271" s="1">
         <f t="shared" si="10"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E271" s="2">
         <v>9008</v>
       </c>
       <c r="F271" s="1">
         <f t="shared" si="9"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -6530,14 +6530,14 @@
       </c>
       <c r="D272" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E272" s="1">
         <v>9010</v>
       </c>
       <c r="F272" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -6552,14 +6552,14 @@
       </c>
       <c r="D273" s="1">
         <f t="shared" si="10"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E273" s="1">
         <v>46</v>
       </c>
       <c r="F273" s="1">
         <f t="shared" si="9"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -6574,14 +6574,14 @@
       </c>
       <c r="D274" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E274" s="1">
         <v>73</v>
       </c>
       <c r="F274" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -6596,14 +6596,14 @@
       </c>
       <c r="D275" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E275" s="1">
         <v>88</v>
       </c>
       <c r="F275" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -6618,14 +6618,14 @@
       </c>
       <c r="D276" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E276" s="1">
         <v>9001</v>
       </c>
       <c r="F276" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -6640,14 +6640,14 @@
       </c>
       <c r="D277" s="1">
         <f t="shared" si="10"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E277" s="2">
         <v>9008</v>
       </c>
       <c r="F277" s="1">
         <f t="shared" si="9"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -6662,14 +6662,14 @@
       </c>
       <c r="D278" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E278" s="1">
         <v>9010</v>
       </c>
       <c r="F278" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -6684,14 +6684,14 @@
       </c>
       <c r="D279" s="1">
         <f t="shared" si="10"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E279" s="1">
         <v>46</v>
       </c>
       <c r="F279" s="1">
         <f t="shared" si="9"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -6706,14 +6706,14 @@
       </c>
       <c r="D280" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E280" s="1">
         <v>73</v>
       </c>
       <c r="F280" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -6728,14 +6728,14 @@
       </c>
       <c r="D281" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E281" s="1">
         <v>88</v>
       </c>
       <c r="F281" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -6750,14 +6750,14 @@
       </c>
       <c r="D282" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E282" s="1">
         <v>9001</v>
       </c>
       <c r="F282" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -6772,14 +6772,14 @@
       </c>
       <c r="D283" s="1">
         <f t="shared" si="10"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E283" s="2">
         <v>9008</v>
       </c>
       <c r="F283" s="1">
         <f t="shared" si="9"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -6794,14 +6794,14 @@
       </c>
       <c r="D284" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E284" s="1">
         <v>9010</v>
       </c>
       <c r="F284" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -6816,14 +6816,14 @@
       </c>
       <c r="D285" s="1">
         <f t="shared" si="10"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E285" s="1">
         <v>46</v>
       </c>
       <c r="F285" s="1">
         <f t="shared" si="9"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -6838,14 +6838,14 @@
       </c>
       <c r="D286" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E286" s="1">
         <v>73</v>
       </c>
       <c r="F286" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -6860,14 +6860,14 @@
       </c>
       <c r="D287" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E287" s="1">
         <v>88</v>
       </c>
       <c r="F287" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -6882,14 +6882,14 @@
       </c>
       <c r="D288" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E288" s="1">
         <v>9001</v>
       </c>
       <c r="F288" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -6904,14 +6904,14 @@
       </c>
       <c r="D289" s="1">
         <f t="shared" si="10"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E289" s="2">
         <v>9008</v>
       </c>
       <c r="F289" s="1">
         <f t="shared" si="9"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -6926,14 +6926,14 @@
       </c>
       <c r="D290" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E290" s="1">
         <v>9010</v>
       </c>
       <c r="F290" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -6948,14 +6948,14 @@
       </c>
       <c r="D291" s="1">
         <f t="shared" si="10"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E291" s="1">
         <v>46</v>
       </c>
       <c r="F291" s="1">
         <f t="shared" si="9"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -6970,14 +6970,14 @@
       </c>
       <c r="D292" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E292" s="1">
         <v>73</v>
       </c>
       <c r="F292" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -6992,14 +6992,14 @@
       </c>
       <c r="D293" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E293" s="1">
         <v>88</v>
       </c>
       <c r="F293" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -7014,14 +7014,14 @@
       </c>
       <c r="D294" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E294" s="1">
         <v>9001</v>
       </c>
       <c r="F294" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -7036,14 +7036,14 @@
       </c>
       <c r="D295" s="1">
         <f t="shared" si="10"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E295" s="2">
         <v>9008</v>
       </c>
       <c r="F295" s="1">
         <f t="shared" si="9"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -7058,14 +7058,14 @@
       </c>
       <c r="D296" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E296" s="1">
         <v>9010</v>
       </c>
       <c r="F296" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -7080,14 +7080,14 @@
       </c>
       <c r="D297" s="1">
         <f t="shared" si="10"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E297" s="1">
         <v>46</v>
       </c>
       <c r="F297" s="1">
         <f t="shared" si="9"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -7102,14 +7102,14 @@
       </c>
       <c r="D298" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E298" s="1">
         <v>73</v>
       </c>
       <c r="F298" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -7124,14 +7124,14 @@
       </c>
       <c r="D299" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E299" s="1">
         <v>88</v>
       </c>
       <c r="F299" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -7146,14 +7146,14 @@
       </c>
       <c r="D300" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E300" s="1">
         <v>9001</v>
       </c>
       <c r="F300" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -7168,14 +7168,14 @@
       </c>
       <c r="D301" s="1">
         <f t="shared" si="10"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E301" s="2">
         <v>9008</v>
       </c>
       <c r="F301" s="1">
         <f t="shared" si="9"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -7190,14 +7190,14 @@
       </c>
       <c r="D302" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E302" s="1">
         <v>9010</v>
       </c>
       <c r="F302" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -7212,14 +7212,14 @@
       </c>
       <c r="D303" s="1">
         <f t="shared" si="10"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E303" s="1">
         <v>46</v>
       </c>
       <c r="F303" s="1">
         <f t="shared" si="9"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -7234,14 +7234,14 @@
       </c>
       <c r="D304" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E304" s="1">
         <v>73</v>
       </c>
       <c r="F304" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -7256,14 +7256,14 @@
       </c>
       <c r="D305" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E305" s="1">
         <v>88</v>
       </c>
       <c r="F305" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -7278,14 +7278,14 @@
       </c>
       <c r="D306" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E306" s="1">
         <v>9001</v>
       </c>
       <c r="F306" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -7300,14 +7300,14 @@
       </c>
       <c r="D307" s="1">
         <f t="shared" si="10"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E307" s="2">
         <v>9008</v>
       </c>
       <c r="F307" s="1">
         <f t="shared" si="9"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -7322,14 +7322,14 @@
       </c>
       <c r="D308" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E308" s="1">
         <v>9010</v>
       </c>
       <c r="F308" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -7344,14 +7344,14 @@
       </c>
       <c r="D309" s="1">
         <f t="shared" si="10"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E309" s="1">
         <v>46</v>
       </c>
       <c r="F309" s="1">
         <f t="shared" si="9"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -7366,14 +7366,14 @@
       </c>
       <c r="D310" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E310" s="1">
         <v>73</v>
       </c>
       <c r="F310" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -7388,14 +7388,14 @@
       </c>
       <c r="D311" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E311" s="1">
         <v>88</v>
       </c>
       <c r="F311" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -7410,14 +7410,14 @@
       </c>
       <c r="D312" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E312" s="1">
         <v>9001</v>
       </c>
       <c r="F312" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -7432,14 +7432,14 @@
       </c>
       <c r="D313" s="1">
         <f t="shared" si="10"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E313" s="2">
         <v>9008</v>
       </c>
       <c r="F313" s="1">
         <f t="shared" si="9"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -7454,14 +7454,14 @@
       </c>
       <c r="D314" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E314" s="1">
         <v>9010</v>
       </c>
       <c r="F314" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -7476,14 +7476,14 @@
       </c>
       <c r="D315" s="1">
         <f t="shared" si="10"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E315" s="1">
         <v>46</v>
       </c>
       <c r="F315" s="1">
         <f t="shared" si="9"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -7498,14 +7498,14 @@
       </c>
       <c r="D316" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E316" s="1">
         <v>73</v>
       </c>
       <c r="F316" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -7520,14 +7520,14 @@
       </c>
       <c r="D317" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E317" s="1">
         <v>88</v>
       </c>
       <c r="F317" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -7542,14 +7542,14 @@
       </c>
       <c r="D318" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E318" s="1">
         <v>9001</v>
       </c>
       <c r="F318" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -7564,14 +7564,14 @@
       </c>
       <c r="D319" s="1">
         <f t="shared" si="10"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E319" s="2">
         <v>9008</v>
       </c>
       <c r="F319" s="1">
         <f t="shared" si="9"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
@@ -7586,14 +7586,14 @@
       </c>
       <c r="D320" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E320" s="1">
         <v>9010</v>
       </c>
       <c r="F320" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -7608,14 +7608,14 @@
       </c>
       <c r="D321" s="1">
         <f t="shared" si="10"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E321" s="1">
         <v>46</v>
       </c>
       <c r="F321" s="1">
         <f t="shared" si="9"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -7630,14 +7630,14 @@
       </c>
       <c r="D322" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E322" s="1">
         <v>73</v>
       </c>
       <c r="F322" s="1">
         <f t="shared" si="9"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -7652,19 +7652,19 @@
       </c>
       <c r="D323" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E323" s="1">
         <v>88</v>
       </c>
       <c r="F323" s="1">
-        <f t="shared" ref="F323:F386" si="11">IF(E323=46,7000,
-IF(E323=73,3000,
-IF(E323=88,3000,
-IF(E323=9001,3000,
-IF(E323=9008,4000,
-IF(E323=9010,3000))))))</f>
-        <v>3000</v>
+        <f t="shared" ref="F323:F386" si="11">IF(E323=46,9000,
+IF(E323=73,4000,
+IF(E323=88,4000,
+IF(E323=9001,4000,
+IF(E323=9008,6000,
+IF(E323=9010,4000))))))</f>
+        <v>4000</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -7679,14 +7679,14 @@
       </c>
       <c r="D324" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E324" s="1">
         <v>9001</v>
       </c>
       <c r="F324" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -7701,14 +7701,14 @@
       </c>
       <c r="D325" s="1">
         <f t="shared" si="10"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E325" s="2">
         <v>9008</v>
       </c>
       <c r="F325" s="1">
         <f t="shared" si="11"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -7723,14 +7723,14 @@
       </c>
       <c r="D326" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E326" s="1">
         <v>9010</v>
       </c>
       <c r="F326" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -7745,14 +7745,14 @@
       </c>
       <c r="D327" s="1">
         <f t="shared" si="10"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E327" s="1">
         <v>46</v>
       </c>
       <c r="F327" s="1">
         <f t="shared" si="11"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -7767,14 +7767,14 @@
       </c>
       <c r="D328" s="1">
         <f t="shared" si="10"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E328" s="1">
         <v>73</v>
       </c>
       <c r="F328" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -7788,20 +7788,20 @@
         <v>88</v>
       </c>
       <c r="D329" s="1">
-        <f t="shared" ref="D329:D392" si="12">IF(C329=46,7000,
-IF(C329=73,3000,
-IF(C329=88,3000,
-IF(C329=9001,3000,
-IF(C329=9008,4000,
-IF(C329=9010,3000))))))</f>
-        <v>3000</v>
+        <f t="shared" ref="D329:D392" si="12">IF(C329=46,9000,
+IF(C329=73,4000,
+IF(C329=88,4000,
+IF(C329=9001,4000,
+IF(C329=9008,6000,
+IF(C329=9010,4000))))))</f>
+        <v>4000</v>
       </c>
       <c r="E329" s="1">
         <v>88</v>
       </c>
       <c r="F329" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -7816,14 +7816,14 @@
       </c>
       <c r="D330" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E330" s="1">
         <v>9001</v>
       </c>
       <c r="F330" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -7838,14 +7838,14 @@
       </c>
       <c r="D331" s="1">
         <f t="shared" si="12"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E331" s="2">
         <v>9008</v>
       </c>
       <c r="F331" s="1">
         <f t="shared" si="11"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -7860,14 +7860,14 @@
       </c>
       <c r="D332" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E332" s="1">
         <v>9010</v>
       </c>
       <c r="F332" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -7882,14 +7882,14 @@
       </c>
       <c r="D333" s="1">
         <f t="shared" si="12"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E333" s="1">
         <v>46</v>
       </c>
       <c r="F333" s="1">
         <f t="shared" si="11"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -7904,14 +7904,14 @@
       </c>
       <c r="D334" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E334" s="1">
         <v>73</v>
       </c>
       <c r="F334" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -7926,14 +7926,14 @@
       </c>
       <c r="D335" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E335" s="1">
         <v>88</v>
       </c>
       <c r="F335" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -7948,14 +7948,14 @@
       </c>
       <c r="D336" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E336" s="1">
         <v>9001</v>
       </c>
       <c r="F336" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -7970,14 +7970,14 @@
       </c>
       <c r="D337" s="1">
         <f t="shared" si="12"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E337" s="2">
         <v>9008</v>
       </c>
       <c r="F337" s="1">
         <f t="shared" si="11"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -7992,14 +7992,14 @@
       </c>
       <c r="D338" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E338" s="1">
         <v>9010</v>
       </c>
       <c r="F338" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -8014,14 +8014,14 @@
       </c>
       <c r="D339" s="1">
         <f t="shared" si="12"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E339" s="1">
         <v>46</v>
       </c>
       <c r="F339" s="1">
         <f t="shared" si="11"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -8036,14 +8036,14 @@
       </c>
       <c r="D340" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E340" s="1">
         <v>73</v>
       </c>
       <c r="F340" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -8058,14 +8058,14 @@
       </c>
       <c r="D341" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E341" s="1">
         <v>88</v>
       </c>
       <c r="F341" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
@@ -8080,14 +8080,14 @@
       </c>
       <c r="D342" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E342" s="1">
         <v>9001</v>
       </c>
       <c r="F342" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -8102,14 +8102,14 @@
       </c>
       <c r="D343" s="1">
         <f t="shared" si="12"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E343" s="2">
         <v>9008</v>
       </c>
       <c r="F343" s="1">
         <f t="shared" si="11"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -8124,14 +8124,14 @@
       </c>
       <c r="D344" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E344" s="1">
         <v>9010</v>
       </c>
       <c r="F344" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -8146,14 +8146,14 @@
       </c>
       <c r="D345" s="1">
         <f t="shared" si="12"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E345" s="1">
         <v>46</v>
       </c>
       <c r="F345" s="1">
         <f t="shared" si="11"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -8168,14 +8168,14 @@
       </c>
       <c r="D346" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E346" s="1">
         <v>73</v>
       </c>
       <c r="F346" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -8190,14 +8190,14 @@
       </c>
       <c r="D347" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E347" s="1">
         <v>88</v>
       </c>
       <c r="F347" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -8212,14 +8212,14 @@
       </c>
       <c r="D348" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E348" s="1">
         <v>9001</v>
       </c>
       <c r="F348" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -8234,14 +8234,14 @@
       </c>
       <c r="D349" s="1">
         <f t="shared" si="12"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E349" s="2">
         <v>9008</v>
       </c>
       <c r="F349" s="1">
         <f t="shared" si="11"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -8256,14 +8256,14 @@
       </c>
       <c r="D350" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E350" s="1">
         <v>9010</v>
       </c>
       <c r="F350" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -8278,14 +8278,14 @@
       </c>
       <c r="D351" s="1">
         <f t="shared" si="12"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E351" s="1">
         <v>46</v>
       </c>
       <c r="F351" s="1">
         <f t="shared" si="11"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -8300,14 +8300,14 @@
       </c>
       <c r="D352" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E352" s="1">
         <v>73</v>
       </c>
       <c r="F352" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -8322,14 +8322,14 @@
       </c>
       <c r="D353" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E353" s="1">
         <v>88</v>
       </c>
       <c r="F353" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -8344,14 +8344,14 @@
       </c>
       <c r="D354" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E354" s="1">
         <v>9001</v>
       </c>
       <c r="F354" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -8366,14 +8366,14 @@
       </c>
       <c r="D355" s="1">
         <f t="shared" si="12"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E355" s="2">
         <v>9008</v>
       </c>
       <c r="F355" s="1">
         <f t="shared" si="11"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -8388,14 +8388,14 @@
       </c>
       <c r="D356" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E356" s="1">
         <v>9010</v>
       </c>
       <c r="F356" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -8410,14 +8410,14 @@
       </c>
       <c r="D357" s="1">
         <f t="shared" si="12"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E357" s="1">
         <v>46</v>
       </c>
       <c r="F357" s="1">
         <f t="shared" si="11"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -8432,14 +8432,14 @@
       </c>
       <c r="D358" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E358" s="1">
         <v>73</v>
       </c>
       <c r="F358" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -8454,14 +8454,14 @@
       </c>
       <c r="D359" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E359" s="1">
         <v>88</v>
       </c>
       <c r="F359" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -8476,14 +8476,14 @@
       </c>
       <c r="D360" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E360" s="1">
         <v>9001</v>
       </c>
       <c r="F360" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -8498,14 +8498,14 @@
       </c>
       <c r="D361" s="1">
         <f t="shared" si="12"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E361" s="2">
         <v>9008</v>
       </c>
       <c r="F361" s="1">
         <f t="shared" si="11"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -8520,14 +8520,14 @@
       </c>
       <c r="D362" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E362" s="1">
         <v>9010</v>
       </c>
       <c r="F362" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -8542,14 +8542,14 @@
       </c>
       <c r="D363" s="1">
         <f t="shared" si="12"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E363" s="1">
         <v>46</v>
       </c>
       <c r="F363" s="1">
         <f t="shared" si="11"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -8564,14 +8564,14 @@
       </c>
       <c r="D364" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E364" s="1">
         <v>73</v>
       </c>
       <c r="F364" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -8586,14 +8586,14 @@
       </c>
       <c r="D365" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E365" s="1">
         <v>88</v>
       </c>
       <c r="F365" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -8608,14 +8608,14 @@
       </c>
       <c r="D366" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E366" s="1">
         <v>9001</v>
       </c>
       <c r="F366" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -8630,14 +8630,14 @@
       </c>
       <c r="D367" s="1">
         <f t="shared" si="12"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E367" s="2">
         <v>9008</v>
       </c>
       <c r="F367" s="1">
         <f t="shared" si="11"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -8652,14 +8652,14 @@
       </c>
       <c r="D368" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E368" s="1">
         <v>9010</v>
       </c>
       <c r="F368" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -8674,14 +8674,14 @@
       </c>
       <c r="D369" s="1">
         <f t="shared" si="12"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E369" s="1">
         <v>46</v>
       </c>
       <c r="F369" s="1">
         <f t="shared" si="11"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -8696,14 +8696,14 @@
       </c>
       <c r="D370" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E370" s="1">
         <v>73</v>
       </c>
       <c r="F370" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -8718,14 +8718,14 @@
       </c>
       <c r="D371" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E371" s="1">
         <v>88</v>
       </c>
       <c r="F371" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -8740,14 +8740,14 @@
       </c>
       <c r="D372" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E372" s="1">
         <v>9001</v>
       </c>
       <c r="F372" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -8762,14 +8762,14 @@
       </c>
       <c r="D373" s="1">
         <f t="shared" si="12"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E373" s="2">
         <v>9008</v>
       </c>
       <c r="F373" s="1">
         <f t="shared" si="11"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -8784,14 +8784,14 @@
       </c>
       <c r="D374" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E374" s="1">
         <v>9010</v>
       </c>
       <c r="F374" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -8806,14 +8806,14 @@
       </c>
       <c r="D375" s="1">
         <f t="shared" si="12"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E375" s="1">
         <v>46</v>
       </c>
       <c r="F375" s="1">
         <f t="shared" si="11"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -8828,14 +8828,14 @@
       </c>
       <c r="D376" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E376" s="1">
         <v>73</v>
       </c>
       <c r="F376" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
@@ -8850,14 +8850,14 @@
       </c>
       <c r="D377" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E377" s="1">
         <v>88</v>
       </c>
       <c r="F377" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -8872,14 +8872,14 @@
       </c>
       <c r="D378" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E378" s="1">
         <v>9001</v>
       </c>
       <c r="F378" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -8894,14 +8894,14 @@
       </c>
       <c r="D379" s="1">
         <f t="shared" si="12"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E379" s="2">
         <v>9008</v>
       </c>
       <c r="F379" s="1">
         <f t="shared" si="11"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -8916,14 +8916,14 @@
       </c>
       <c r="D380" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E380" s="1">
         <v>9010</v>
       </c>
       <c r="F380" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -8938,14 +8938,14 @@
       </c>
       <c r="D381" s="1">
         <f t="shared" si="12"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E381" s="1">
         <v>46</v>
       </c>
       <c r="F381" s="1">
         <f t="shared" si="11"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -8960,14 +8960,14 @@
       </c>
       <c r="D382" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E382" s="1">
         <v>73</v>
       </c>
       <c r="F382" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -8982,14 +8982,14 @@
       </c>
       <c r="D383" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E383" s="1">
         <v>88</v>
       </c>
       <c r="F383" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
@@ -9004,14 +9004,14 @@
       </c>
       <c r="D384" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E384" s="1">
         <v>9001</v>
       </c>
       <c r="F384" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -9026,14 +9026,14 @@
       </c>
       <c r="D385" s="1">
         <f t="shared" si="12"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E385" s="2">
         <v>9008</v>
       </c>
       <c r="F385" s="1">
         <f t="shared" si="11"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -9048,14 +9048,14 @@
       </c>
       <c r="D386" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E386" s="1">
         <v>9010</v>
       </c>
       <c r="F386" s="1">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -9070,19 +9070,19 @@
       </c>
       <c r="D387" s="1">
         <f t="shared" si="12"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E387" s="1">
         <v>46</v>
       </c>
       <c r="F387" s="1">
-        <f t="shared" ref="F387:F450" si="13">IF(E387=46,7000,
-IF(E387=73,3000,
-IF(E387=88,3000,
-IF(E387=9001,3000,
-IF(E387=9008,4000,
-IF(E387=9010,3000))))))</f>
-        <v>7000</v>
+        <f t="shared" ref="F387:F450" si="13">IF(E387=46,9000,
+IF(E387=73,4000,
+IF(E387=88,4000,
+IF(E387=9001,4000,
+IF(E387=9008,6000,
+IF(E387=9010,4000))))))</f>
+        <v>9000</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -9097,14 +9097,14 @@
       </c>
       <c r="D388" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E388" s="1">
         <v>73</v>
       </c>
       <c r="F388" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -9119,14 +9119,14 @@
       </c>
       <c r="D389" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E389" s="1">
         <v>88</v>
       </c>
       <c r="F389" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -9141,14 +9141,14 @@
       </c>
       <c r="D390" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E390" s="1">
         <v>9001</v>
       </c>
       <c r="F390" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -9163,14 +9163,14 @@
       </c>
       <c r="D391" s="1">
         <f t="shared" si="12"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E391" s="2">
         <v>9008</v>
       </c>
       <c r="F391" s="1">
         <f t="shared" si="13"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -9185,14 +9185,14 @@
       </c>
       <c r="D392" s="1">
         <f t="shared" si="12"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E392" s="1">
         <v>9010</v>
       </c>
       <c r="F392" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -9206,20 +9206,20 @@
         <v>46</v>
       </c>
       <c r="D393" s="1">
-        <f t="shared" ref="D393:D456" si="14">IF(C393=46,7000,
-IF(C393=73,3000,
-IF(C393=88,3000,
-IF(C393=9001,3000,
-IF(C393=9008,4000,
-IF(C393=9010,3000))))))</f>
-        <v>7000</v>
+        <f t="shared" ref="D393:D456" si="14">IF(C393=46,9000,
+IF(C393=73,4000,
+IF(C393=88,4000,
+IF(C393=9001,4000,
+IF(C393=9008,6000,
+IF(C393=9010,4000))))))</f>
+        <v>9000</v>
       </c>
       <c r="E393" s="1">
         <v>46</v>
       </c>
       <c r="F393" s="1">
         <f t="shared" si="13"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -9234,14 +9234,14 @@
       </c>
       <c r="D394" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E394" s="1">
         <v>73</v>
       </c>
       <c r="F394" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -9256,14 +9256,14 @@
       </c>
       <c r="D395" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E395" s="1">
         <v>88</v>
       </c>
       <c r="F395" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -9278,14 +9278,14 @@
       </c>
       <c r="D396" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E396" s="1">
         <v>9001</v>
       </c>
       <c r="F396" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -9300,14 +9300,14 @@
       </c>
       <c r="D397" s="1">
         <f t="shared" si="14"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E397" s="2">
         <v>9008</v>
       </c>
       <c r="F397" s="1">
         <f t="shared" si="13"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -9322,14 +9322,14 @@
       </c>
       <c r="D398" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E398" s="1">
         <v>9010</v>
       </c>
       <c r="F398" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -9344,14 +9344,14 @@
       </c>
       <c r="D399" s="1">
         <f t="shared" si="14"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E399" s="1">
         <v>46</v>
       </c>
       <c r="F399" s="1">
         <f t="shared" si="13"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -9366,14 +9366,14 @@
       </c>
       <c r="D400" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E400" s="1">
         <v>73</v>
       </c>
       <c r="F400" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -9388,14 +9388,14 @@
       </c>
       <c r="D401" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E401" s="1">
         <v>88</v>
       </c>
       <c r="F401" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
@@ -9410,14 +9410,14 @@
       </c>
       <c r="D402" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E402" s="1">
         <v>9001</v>
       </c>
       <c r="F402" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -9432,14 +9432,14 @@
       </c>
       <c r="D403" s="1">
         <f t="shared" si="14"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E403" s="2">
         <v>9008</v>
       </c>
       <c r="F403" s="1">
         <f t="shared" si="13"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -9454,14 +9454,14 @@
       </c>
       <c r="D404" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E404" s="1">
         <v>9010</v>
       </c>
       <c r="F404" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -9476,14 +9476,14 @@
       </c>
       <c r="D405" s="1">
         <f t="shared" si="14"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E405" s="1">
         <v>46</v>
       </c>
       <c r="F405" s="1">
         <f t="shared" si="13"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
@@ -9498,14 +9498,14 @@
       </c>
       <c r="D406" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E406" s="1">
         <v>73</v>
       </c>
       <c r="F406" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -9520,14 +9520,14 @@
       </c>
       <c r="D407" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E407" s="1">
         <v>88</v>
       </c>
       <c r="F407" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -9542,14 +9542,14 @@
       </c>
       <c r="D408" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E408" s="1">
         <v>9001</v>
       </c>
       <c r="F408" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -9564,14 +9564,14 @@
       </c>
       <c r="D409" s="1">
         <f t="shared" si="14"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E409" s="2">
         <v>9008</v>
       </c>
       <c r="F409" s="1">
         <f t="shared" si="13"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
@@ -9586,14 +9586,14 @@
       </c>
       <c r="D410" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E410" s="1">
         <v>9010</v>
       </c>
       <c r="F410" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
@@ -9608,14 +9608,14 @@
       </c>
       <c r="D411" s="1">
         <f t="shared" si="14"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E411" s="1">
         <v>46</v>
       </c>
       <c r="F411" s="1">
         <f t="shared" si="13"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -9630,14 +9630,14 @@
       </c>
       <c r="D412" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E412" s="1">
         <v>73</v>
       </c>
       <c r="F412" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -9652,14 +9652,14 @@
       </c>
       <c r="D413" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E413" s="1">
         <v>88</v>
       </c>
       <c r="F413" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
@@ -9674,14 +9674,14 @@
       </c>
       <c r="D414" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E414" s="1">
         <v>9001</v>
       </c>
       <c r="F414" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
@@ -9696,14 +9696,14 @@
       </c>
       <c r="D415" s="1">
         <f t="shared" si="14"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E415" s="2">
         <v>9008</v>
       </c>
       <c r="F415" s="1">
         <f t="shared" si="13"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
@@ -9718,14 +9718,14 @@
       </c>
       <c r="D416" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E416" s="1">
         <v>9010</v>
       </c>
       <c r="F416" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -9740,14 +9740,14 @@
       </c>
       <c r="D417" s="1">
         <f t="shared" si="14"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E417" s="1">
         <v>46</v>
       </c>
       <c r="F417" s="1">
         <f t="shared" si="13"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
@@ -9762,14 +9762,14 @@
       </c>
       <c r="D418" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E418" s="1">
         <v>73</v>
       </c>
       <c r="F418" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -9784,14 +9784,14 @@
       </c>
       <c r="D419" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E419" s="1">
         <v>88</v>
       </c>
       <c r="F419" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -9806,14 +9806,14 @@
       </c>
       <c r="D420" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E420" s="1">
         <v>9001</v>
       </c>
       <c r="F420" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
@@ -9828,14 +9828,14 @@
       </c>
       <c r="D421" s="1">
         <f t="shared" si="14"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E421" s="2">
         <v>9008</v>
       </c>
       <c r="F421" s="1">
         <f t="shared" si="13"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
@@ -9850,14 +9850,14 @@
       </c>
       <c r="D422" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E422" s="1">
         <v>9010</v>
       </c>
       <c r="F422" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -9872,14 +9872,14 @@
       </c>
       <c r="D423" s="1">
         <f t="shared" si="14"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E423" s="1">
         <v>46</v>
       </c>
       <c r="F423" s="1">
         <f t="shared" si="13"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -9894,14 +9894,14 @@
       </c>
       <c r="D424" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E424" s="1">
         <v>73</v>
       </c>
       <c r="F424" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -9916,14 +9916,14 @@
       </c>
       <c r="D425" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E425" s="1">
         <v>88</v>
       </c>
       <c r="F425" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -9938,14 +9938,14 @@
       </c>
       <c r="D426" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E426" s="1">
         <v>9001</v>
       </c>
       <c r="F426" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -9960,14 +9960,14 @@
       </c>
       <c r="D427" s="1">
         <f t="shared" si="14"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E427" s="2">
         <v>9008</v>
       </c>
       <c r="F427" s="1">
         <f t="shared" si="13"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
@@ -9982,14 +9982,14 @@
       </c>
       <c r="D428" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E428" s="1">
         <v>9010</v>
       </c>
       <c r="F428" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -10004,14 +10004,14 @@
       </c>
       <c r="D429" s="1">
         <f t="shared" si="14"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E429" s="1">
         <v>46</v>
       </c>
       <c r="F429" s="1">
         <f t="shared" si="13"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
@@ -10026,14 +10026,14 @@
       </c>
       <c r="D430" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E430" s="1">
         <v>73</v>
       </c>
       <c r="F430" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
@@ -10048,14 +10048,14 @@
       </c>
       <c r="D431" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E431" s="1">
         <v>88</v>
       </c>
       <c r="F431" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
@@ -10070,14 +10070,14 @@
       </c>
       <c r="D432" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E432" s="1">
         <v>9001</v>
       </c>
       <c r="F432" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
@@ -10092,14 +10092,14 @@
       </c>
       <c r="D433" s="1">
         <f t="shared" si="14"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E433" s="2">
         <v>9008</v>
       </c>
       <c r="F433" s="1">
         <f t="shared" si="13"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -10114,14 +10114,14 @@
       </c>
       <c r="D434" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E434" s="1">
         <v>9010</v>
       </c>
       <c r="F434" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
@@ -10136,14 +10136,14 @@
       </c>
       <c r="D435" s="1">
         <f t="shared" si="14"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E435" s="1">
         <v>46</v>
       </c>
       <c r="F435" s="1">
         <f t="shared" si="13"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
@@ -10158,14 +10158,14 @@
       </c>
       <c r="D436" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E436" s="1">
         <v>73</v>
       </c>
       <c r="F436" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -10180,14 +10180,14 @@
       </c>
       <c r="D437" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E437" s="1">
         <v>88</v>
       </c>
       <c r="F437" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
@@ -10202,14 +10202,14 @@
       </c>
       <c r="D438" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E438" s="1">
         <v>9001</v>
       </c>
       <c r="F438" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
@@ -10224,14 +10224,14 @@
       </c>
       <c r="D439" s="1">
         <f t="shared" si="14"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E439" s="2">
         <v>9008</v>
       </c>
       <c r="F439" s="1">
         <f t="shared" si="13"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
@@ -10246,14 +10246,14 @@
       </c>
       <c r="D440" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E440" s="1">
         <v>9010</v>
       </c>
       <c r="F440" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
@@ -10268,14 +10268,14 @@
       </c>
       <c r="D441" s="1">
         <f t="shared" si="14"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E441" s="1">
         <v>46</v>
       </c>
       <c r="F441" s="1">
         <f t="shared" si="13"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
@@ -10290,14 +10290,14 @@
       </c>
       <c r="D442" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E442" s="1">
         <v>73</v>
       </c>
       <c r="F442" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
@@ -10312,14 +10312,14 @@
       </c>
       <c r="D443" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E443" s="1">
         <v>88</v>
       </c>
       <c r="F443" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
@@ -10334,14 +10334,14 @@
       </c>
       <c r="D444" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E444" s="1">
         <v>9001</v>
       </c>
       <c r="F444" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
@@ -10356,14 +10356,14 @@
       </c>
       <c r="D445" s="1">
         <f t="shared" si="14"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E445" s="2">
         <v>9008</v>
       </c>
       <c r="F445" s="1">
         <f t="shared" si="13"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
@@ -10378,14 +10378,14 @@
       </c>
       <c r="D446" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E446" s="1">
         <v>9010</v>
       </c>
       <c r="F446" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
@@ -10400,14 +10400,14 @@
       </c>
       <c r="D447" s="1">
         <f t="shared" si="14"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E447" s="1">
         <v>46</v>
       </c>
       <c r="F447" s="1">
         <f t="shared" si="13"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
@@ -10422,14 +10422,14 @@
       </c>
       <c r="D448" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E448" s="1">
         <v>73</v>
       </c>
       <c r="F448" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
@@ -10444,14 +10444,14 @@
       </c>
       <c r="D449" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E449" s="1">
         <v>88</v>
       </c>
       <c r="F449" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
@@ -10466,14 +10466,14 @@
       </c>
       <c r="D450" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E450" s="1">
         <v>9001</v>
       </c>
       <c r="F450" s="1">
         <f t="shared" si="13"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
@@ -10488,19 +10488,19 @@
       </c>
       <c r="D451" s="1">
         <f t="shared" si="14"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E451" s="2">
         <v>9008</v>
       </c>
       <c r="F451" s="1">
-        <f t="shared" ref="F451:F514" si="15">IF(E451=46,7000,
-IF(E451=73,3000,
-IF(E451=88,3000,
-IF(E451=9001,3000,
-IF(E451=9008,4000,
-IF(E451=9010,3000))))))</f>
-        <v>4000</v>
+        <f t="shared" ref="F451:F514" si="15">IF(E451=46,9000,
+IF(E451=73,4000,
+IF(E451=88,4000,
+IF(E451=9001,4000,
+IF(E451=9008,6000,
+IF(E451=9010,4000))))))</f>
+        <v>6000</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
@@ -10515,14 +10515,14 @@
       </c>
       <c r="D452" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E452" s="1">
         <v>9010</v>
       </c>
       <c r="F452" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
@@ -10537,14 +10537,14 @@
       </c>
       <c r="D453" s="1">
         <f t="shared" si="14"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E453" s="1">
         <v>46</v>
       </c>
       <c r="F453" s="1">
         <f t="shared" si="15"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
@@ -10559,14 +10559,14 @@
       </c>
       <c r="D454" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E454" s="1">
         <v>73</v>
       </c>
       <c r="F454" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
@@ -10581,14 +10581,14 @@
       </c>
       <c r="D455" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E455" s="1">
         <v>88</v>
       </c>
       <c r="F455" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
@@ -10603,14 +10603,14 @@
       </c>
       <c r="D456" s="1">
         <f t="shared" si="14"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E456" s="1">
         <v>9001</v>
       </c>
       <c r="F456" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
@@ -10624,20 +10624,20 @@
         <v>9008</v>
       </c>
       <c r="D457" s="1">
-        <f t="shared" ref="D457:D520" si="16">IF(C457=46,7000,
-IF(C457=73,3000,
-IF(C457=88,3000,
-IF(C457=9001,3000,
-IF(C457=9008,4000,
-IF(C457=9010,3000))))))</f>
-        <v>4000</v>
+        <f t="shared" ref="D457:D520" si="16">IF(C457=46,9000,
+IF(C457=73,4000,
+IF(C457=88,4000,
+IF(C457=9001,4000,
+IF(C457=9008,6000,
+IF(C457=9010,4000))))))</f>
+        <v>6000</v>
       </c>
       <c r="E457" s="2">
         <v>9008</v>
       </c>
       <c r="F457" s="1">
         <f t="shared" si="15"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
@@ -10652,14 +10652,14 @@
       </c>
       <c r="D458" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E458" s="1">
         <v>9010</v>
       </c>
       <c r="F458" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
@@ -10674,14 +10674,14 @@
       </c>
       <c r="D459" s="1">
         <f t="shared" si="16"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E459" s="1">
         <v>46</v>
       </c>
       <c r="F459" s="1">
         <f t="shared" si="15"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -10696,14 +10696,14 @@
       </c>
       <c r="D460" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E460" s="1">
         <v>73</v>
       </c>
       <c r="F460" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
@@ -10718,14 +10718,14 @@
       </c>
       <c r="D461" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E461" s="1">
         <v>88</v>
       </c>
       <c r="F461" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -10740,14 +10740,14 @@
       </c>
       <c r="D462" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E462" s="1">
         <v>9001</v>
       </c>
       <c r="F462" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
@@ -10762,14 +10762,14 @@
       </c>
       <c r="D463" s="1">
         <f t="shared" si="16"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E463" s="2">
         <v>9008</v>
       </c>
       <c r="F463" s="1">
         <f t="shared" si="15"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
@@ -10784,14 +10784,14 @@
       </c>
       <c r="D464" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E464" s="1">
         <v>9010</v>
       </c>
       <c r="F464" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
@@ -10806,14 +10806,14 @@
       </c>
       <c r="D465" s="1">
         <f t="shared" si="16"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E465" s="1">
         <v>46</v>
       </c>
       <c r="F465" s="1">
         <f t="shared" si="15"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
@@ -10828,14 +10828,14 @@
       </c>
       <c r="D466" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E466" s="1">
         <v>73</v>
       </c>
       <c r="F466" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
@@ -10850,14 +10850,14 @@
       </c>
       <c r="D467" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E467" s="1">
         <v>88</v>
       </c>
       <c r="F467" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
@@ -10872,14 +10872,14 @@
       </c>
       <c r="D468" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E468" s="1">
         <v>9001</v>
       </c>
       <c r="F468" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
@@ -10894,14 +10894,14 @@
       </c>
       <c r="D469" s="1">
         <f t="shared" si="16"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E469" s="2">
         <v>9008</v>
       </c>
       <c r="F469" s="1">
         <f t="shared" si="15"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
@@ -10916,14 +10916,14 @@
       </c>
       <c r="D470" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E470" s="1">
         <v>9010</v>
       </c>
       <c r="F470" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
@@ -10938,14 +10938,14 @@
       </c>
       <c r="D471" s="1">
         <f t="shared" si="16"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E471" s="1">
         <v>46</v>
       </c>
       <c r="F471" s="1">
         <f t="shared" si="15"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
@@ -10960,14 +10960,14 @@
       </c>
       <c r="D472" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E472" s="1">
         <v>73</v>
       </c>
       <c r="F472" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
@@ -10982,14 +10982,14 @@
       </c>
       <c r="D473" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E473" s="1">
         <v>88</v>
       </c>
       <c r="F473" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
@@ -11004,14 +11004,14 @@
       </c>
       <c r="D474" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E474" s="1">
         <v>9001</v>
       </c>
       <c r="F474" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
@@ -11026,14 +11026,14 @@
       </c>
       <c r="D475" s="1">
         <f t="shared" si="16"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E475" s="2">
         <v>9008</v>
       </c>
       <c r="F475" s="1">
         <f t="shared" si="15"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
@@ -11048,14 +11048,14 @@
       </c>
       <c r="D476" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E476" s="1">
         <v>9010</v>
       </c>
       <c r="F476" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
@@ -11070,14 +11070,14 @@
       </c>
       <c r="D477" s="1">
         <f t="shared" si="16"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E477" s="1">
         <v>46</v>
       </c>
       <c r="F477" s="1">
         <f t="shared" si="15"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
@@ -11092,14 +11092,14 @@
       </c>
       <c r="D478" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E478" s="1">
         <v>73</v>
       </c>
       <c r="F478" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
@@ -11114,14 +11114,14 @@
       </c>
       <c r="D479" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E479" s="1">
         <v>88</v>
       </c>
       <c r="F479" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
@@ -11136,14 +11136,14 @@
       </c>
       <c r="D480" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E480" s="1">
         <v>9001</v>
       </c>
       <c r="F480" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
@@ -11158,14 +11158,14 @@
       </c>
       <c r="D481" s="1">
         <f t="shared" si="16"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E481" s="2">
         <v>9008</v>
       </c>
       <c r="F481" s="1">
         <f t="shared" si="15"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
@@ -11180,14 +11180,14 @@
       </c>
       <c r="D482" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E482" s="1">
         <v>9010</v>
       </c>
       <c r="F482" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
@@ -11202,14 +11202,14 @@
       </c>
       <c r="D483" s="1">
         <f t="shared" si="16"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E483" s="1">
         <v>46</v>
       </c>
       <c r="F483" s="1">
         <f t="shared" si="15"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
@@ -11224,14 +11224,14 @@
       </c>
       <c r="D484" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E484" s="1">
         <v>73</v>
       </c>
       <c r="F484" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
@@ -11246,14 +11246,14 @@
       </c>
       <c r="D485" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E485" s="1">
         <v>88</v>
       </c>
       <c r="F485" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
@@ -11268,14 +11268,14 @@
       </c>
       <c r="D486" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E486" s="1">
         <v>9001</v>
       </c>
       <c r="F486" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
@@ -11290,14 +11290,14 @@
       </c>
       <c r="D487" s="1">
         <f t="shared" si="16"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E487" s="2">
         <v>9008</v>
       </c>
       <c r="F487" s="1">
         <f t="shared" si="15"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
@@ -11312,14 +11312,14 @@
       </c>
       <c r="D488" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E488" s="1">
         <v>9010</v>
       </c>
       <c r="F488" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
@@ -11334,14 +11334,14 @@
       </c>
       <c r="D489" s="1">
         <f t="shared" si="16"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E489" s="1">
         <v>46</v>
       </c>
       <c r="F489" s="1">
         <f t="shared" si="15"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
@@ -11356,14 +11356,14 @@
       </c>
       <c r="D490" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E490" s="1">
         <v>73</v>
       </c>
       <c r="F490" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
@@ -11378,14 +11378,14 @@
       </c>
       <c r="D491" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E491" s="1">
         <v>88</v>
       </c>
       <c r="F491" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
@@ -11400,14 +11400,14 @@
       </c>
       <c r="D492" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E492" s="1">
         <v>9001</v>
       </c>
       <c r="F492" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
@@ -11422,14 +11422,14 @@
       </c>
       <c r="D493" s="1">
         <f t="shared" si="16"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E493" s="2">
         <v>9008</v>
       </c>
       <c r="F493" s="1">
         <f t="shared" si="15"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
@@ -11444,14 +11444,14 @@
       </c>
       <c r="D494" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E494" s="1">
         <v>9010</v>
       </c>
       <c r="F494" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
@@ -11466,14 +11466,14 @@
       </c>
       <c r="D495" s="1">
         <f t="shared" si="16"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E495" s="1">
         <v>46</v>
       </c>
       <c r="F495" s="1">
         <f t="shared" si="15"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
@@ -11488,14 +11488,14 @@
       </c>
       <c r="D496" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E496" s="1">
         <v>73</v>
       </c>
       <c r="F496" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
@@ -11510,14 +11510,14 @@
       </c>
       <c r="D497" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E497" s="1">
         <v>88</v>
       </c>
       <c r="F497" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
@@ -11532,14 +11532,14 @@
       </c>
       <c r="D498" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E498" s="1">
         <v>9001</v>
       </c>
       <c r="F498" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
@@ -11554,14 +11554,14 @@
       </c>
       <c r="D499" s="1">
         <f t="shared" si="16"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E499" s="2">
         <v>9008</v>
       </c>
       <c r="F499" s="1">
         <f t="shared" si="15"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
@@ -11576,14 +11576,14 @@
       </c>
       <c r="D500" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E500" s="1">
         <v>9010</v>
       </c>
       <c r="F500" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
@@ -11598,14 +11598,14 @@
       </c>
       <c r="D501" s="1">
         <f t="shared" si="16"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E501" s="1">
         <v>46</v>
       </c>
       <c r="F501" s="1">
         <f t="shared" si="15"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
@@ -11620,14 +11620,14 @@
       </c>
       <c r="D502" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E502" s="1">
         <v>73</v>
       </c>
       <c r="F502" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
@@ -11642,14 +11642,14 @@
       </c>
       <c r="D503" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E503" s="1">
         <v>88</v>
       </c>
       <c r="F503" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
@@ -11664,14 +11664,14 @@
       </c>
       <c r="D504" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E504" s="1">
         <v>9001</v>
       </c>
       <c r="F504" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
@@ -11686,14 +11686,14 @@
       </c>
       <c r="D505" s="1">
         <f t="shared" si="16"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E505" s="2">
         <v>9008</v>
       </c>
       <c r="F505" s="1">
         <f t="shared" si="15"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
@@ -11708,14 +11708,14 @@
       </c>
       <c r="D506" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E506" s="1">
         <v>9010</v>
       </c>
       <c r="F506" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
@@ -11730,14 +11730,14 @@
       </c>
       <c r="D507" s="1">
         <f t="shared" si="16"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E507" s="1">
         <v>46</v>
       </c>
       <c r="F507" s="1">
         <f t="shared" si="15"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
@@ -11752,14 +11752,14 @@
       </c>
       <c r="D508" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E508" s="1">
         <v>73</v>
       </c>
       <c r="F508" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
@@ -11774,14 +11774,14 @@
       </c>
       <c r="D509" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E509" s="1">
         <v>88</v>
       </c>
       <c r="F509" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.3">
@@ -11796,14 +11796,14 @@
       </c>
       <c r="D510" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E510" s="1">
         <v>9001</v>
       </c>
       <c r="F510" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
@@ -11818,14 +11818,14 @@
       </c>
       <c r="D511" s="1">
         <f t="shared" si="16"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E511" s="2">
         <v>9008</v>
       </c>
       <c r="F511" s="1">
         <f t="shared" si="15"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
@@ -11840,14 +11840,14 @@
       </c>
       <c r="D512" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E512" s="1">
         <v>9010</v>
       </c>
       <c r="F512" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
@@ -11862,14 +11862,14 @@
       </c>
       <c r="D513" s="1">
         <f t="shared" si="16"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E513" s="1">
         <v>46</v>
       </c>
       <c r="F513" s="1">
         <f t="shared" si="15"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
@@ -11884,14 +11884,14 @@
       </c>
       <c r="D514" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E514" s="1">
         <v>73</v>
       </c>
       <c r="F514" s="1">
         <f t="shared" si="15"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.3">
@@ -11906,19 +11906,19 @@
       </c>
       <c r="D515" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E515" s="1">
         <v>88</v>
       </c>
       <c r="F515" s="1">
-        <f t="shared" ref="F515:F560" si="17">IF(E515=46,7000,
-IF(E515=73,3000,
-IF(E515=88,3000,
-IF(E515=9001,3000,
-IF(E515=9008,4000,
-IF(E515=9010,3000))))))</f>
-        <v>3000</v>
+        <f t="shared" ref="F515:F560" si="17">IF(E515=46,9000,
+IF(E515=73,4000,
+IF(E515=88,4000,
+IF(E515=9001,4000,
+IF(E515=9008,6000,
+IF(E515=9010,4000))))))</f>
+        <v>4000</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
@@ -11933,14 +11933,14 @@
       </c>
       <c r="D516" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E516" s="1">
         <v>9001</v>
       </c>
       <c r="F516" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
@@ -11955,14 +11955,14 @@
       </c>
       <c r="D517" s="1">
         <f t="shared" si="16"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E517" s="2">
         <v>9008</v>
       </c>
       <c r="F517" s="1">
         <f t="shared" si="17"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
@@ -11977,14 +11977,14 @@
       </c>
       <c r="D518" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E518" s="1">
         <v>9010</v>
       </c>
       <c r="F518" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
@@ -11999,14 +11999,14 @@
       </c>
       <c r="D519" s="1">
         <f t="shared" si="16"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E519" s="1">
         <v>46</v>
       </c>
       <c r="F519" s="1">
         <f t="shared" si="17"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
@@ -12021,14 +12021,14 @@
       </c>
       <c r="D520" s="1">
         <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E520" s="1">
         <v>73</v>
       </c>
       <c r="F520" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
@@ -12042,20 +12042,20 @@
         <v>88</v>
       </c>
       <c r="D521" s="1">
-        <f t="shared" ref="D521:D560" si="18">IF(C521=46,7000,
-IF(C521=73,3000,
-IF(C521=88,3000,
-IF(C521=9001,3000,
-IF(C521=9008,4000,
-IF(C521=9010,3000))))))</f>
-        <v>3000</v>
+        <f t="shared" ref="D521:D560" si="18">IF(C521=46,9000,
+IF(C521=73,4000,
+IF(C521=88,4000,
+IF(C521=9001,4000,
+IF(C521=9008,6000,
+IF(C521=9010,4000))))))</f>
+        <v>4000</v>
       </c>
       <c r="E521" s="1">
         <v>88</v>
       </c>
       <c r="F521" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.3">
@@ -12070,14 +12070,14 @@
       </c>
       <c r="D522" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E522" s="1">
         <v>9001</v>
       </c>
       <c r="F522" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.3">
@@ -12092,14 +12092,14 @@
       </c>
       <c r="D523" s="1">
         <f t="shared" si="18"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E523" s="2">
         <v>9008</v>
       </c>
       <c r="F523" s="1">
         <f t="shared" si="17"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
@@ -12114,14 +12114,14 @@
       </c>
       <c r="D524" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E524" s="1">
         <v>9010</v>
       </c>
       <c r="F524" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
@@ -12136,14 +12136,14 @@
       </c>
       <c r="D525" s="1">
         <f t="shared" si="18"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E525" s="1">
         <v>46</v>
       </c>
       <c r="F525" s="1">
         <f t="shared" si="17"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
@@ -12158,14 +12158,14 @@
       </c>
       <c r="D526" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E526" s="1">
         <v>73</v>
       </c>
       <c r="F526" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.3">
@@ -12180,14 +12180,14 @@
       </c>
       <c r="D527" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E527" s="1">
         <v>88</v>
       </c>
       <c r="F527" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.3">
@@ -12202,14 +12202,14 @@
       </c>
       <c r="D528" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E528" s="1">
         <v>9001</v>
       </c>
       <c r="F528" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.3">
@@ -12224,14 +12224,14 @@
       </c>
       <c r="D529" s="1">
         <f t="shared" si="18"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E529" s="2">
         <v>9008</v>
       </c>
       <c r="F529" s="1">
         <f t="shared" si="17"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.3">
@@ -12246,14 +12246,14 @@
       </c>
       <c r="D530" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E530" s="1">
         <v>9010</v>
       </c>
       <c r="F530" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.3">
@@ -12268,14 +12268,14 @@
       </c>
       <c r="D531" s="1">
         <f t="shared" si="18"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E531" s="1">
         <v>46</v>
       </c>
       <c r="F531" s="1">
         <f t="shared" si="17"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.3">
@@ -12290,14 +12290,14 @@
       </c>
       <c r="D532" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E532" s="1">
         <v>73</v>
       </c>
       <c r="F532" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.3">
@@ -12312,14 +12312,14 @@
       </c>
       <c r="D533" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E533" s="1">
         <v>88</v>
       </c>
       <c r="F533" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.3">
@@ -12334,14 +12334,14 @@
       </c>
       <c r="D534" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E534" s="1">
         <v>9001</v>
       </c>
       <c r="F534" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.3">
@@ -12356,14 +12356,14 @@
       </c>
       <c r="D535" s="1">
         <f t="shared" si="18"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E535" s="2">
         <v>9008</v>
       </c>
       <c r="F535" s="1">
         <f t="shared" si="17"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.3">
@@ -12378,14 +12378,14 @@
       </c>
       <c r="D536" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E536" s="1">
         <v>9010</v>
       </c>
       <c r="F536" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.3">
@@ -12400,14 +12400,14 @@
       </c>
       <c r="D537" s="1">
         <f t="shared" si="18"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E537" s="1">
         <v>46</v>
       </c>
       <c r="F537" s="1">
         <f t="shared" si="17"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.3">
@@ -12422,14 +12422,14 @@
       </c>
       <c r="D538" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E538" s="1">
         <v>73</v>
       </c>
       <c r="F538" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.3">
@@ -12444,14 +12444,14 @@
       </c>
       <c r="D539" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E539" s="1">
         <v>88</v>
       </c>
       <c r="F539" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.3">
@@ -12466,14 +12466,14 @@
       </c>
       <c r="D540" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E540" s="1">
         <v>9001</v>
       </c>
       <c r="F540" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.3">
@@ -12488,14 +12488,14 @@
       </c>
       <c r="D541" s="1">
         <f t="shared" si="18"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E541" s="2">
         <v>9008</v>
       </c>
       <c r="F541" s="1">
         <f t="shared" si="17"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.3">
@@ -12510,14 +12510,14 @@
       </c>
       <c r="D542" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E542" s="1">
         <v>9010</v>
       </c>
       <c r="F542" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.3">
@@ -12532,14 +12532,14 @@
       </c>
       <c r="D543" s="1">
         <f t="shared" si="18"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E543" s="1">
         <v>46</v>
       </c>
       <c r="F543" s="1">
         <f t="shared" si="17"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.3">
@@ -12554,14 +12554,14 @@
       </c>
       <c r="D544" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E544" s="1">
         <v>73</v>
       </c>
       <c r="F544" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.3">
@@ -12576,14 +12576,14 @@
       </c>
       <c r="D545" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E545" s="1">
         <v>88</v>
       </c>
       <c r="F545" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.3">
@@ -12598,14 +12598,14 @@
       </c>
       <c r="D546" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E546" s="1">
         <v>9001</v>
       </c>
       <c r="F546" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.3">
@@ -12620,14 +12620,14 @@
       </c>
       <c r="D547" s="1">
         <f t="shared" si="18"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E547" s="2">
         <v>9008</v>
       </c>
       <c r="F547" s="1">
         <f t="shared" si="17"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.3">
@@ -12642,14 +12642,14 @@
       </c>
       <c r="D548" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E548" s="1">
         <v>9010</v>
       </c>
       <c r="F548" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.3">
@@ -12664,14 +12664,14 @@
       </c>
       <c r="D549" s="1">
         <f t="shared" si="18"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E549" s="1">
         <v>46</v>
       </c>
       <c r="F549" s="1">
         <f t="shared" si="17"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.3">
@@ -12686,14 +12686,14 @@
       </c>
       <c r="D550" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E550" s="1">
         <v>73</v>
       </c>
       <c r="F550" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.3">
@@ -12708,14 +12708,14 @@
       </c>
       <c r="D551" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E551" s="1">
         <v>88</v>
       </c>
       <c r="F551" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.3">
@@ -12730,14 +12730,14 @@
       </c>
       <c r="D552" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E552" s="1">
         <v>9001</v>
       </c>
       <c r="F552" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.3">
@@ -12752,14 +12752,14 @@
       </c>
       <c r="D553" s="1">
         <f t="shared" si="18"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E553" s="2">
         <v>9008</v>
       </c>
       <c r="F553" s="1">
         <f t="shared" si="17"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.3">
@@ -12774,14 +12774,14 @@
       </c>
       <c r="D554" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E554" s="1">
         <v>9010</v>
       </c>
       <c r="F554" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.3">
@@ -12796,14 +12796,14 @@
       </c>
       <c r="D555" s="1">
         <f t="shared" si="18"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E555" s="1">
         <v>46</v>
       </c>
       <c r="F555" s="1">
         <f t="shared" si="17"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.3">
@@ -12818,14 +12818,14 @@
       </c>
       <c r="D556" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E556" s="1">
         <v>73</v>
       </c>
       <c r="F556" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.3">
@@ -12840,14 +12840,14 @@
       </c>
       <c r="D557" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E557" s="1">
         <v>88</v>
       </c>
       <c r="F557" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.3">
@@ -12862,14 +12862,14 @@
       </c>
       <c r="D558" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E558" s="1">
         <v>9001</v>
       </c>
       <c r="F558" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.3">
@@ -12884,14 +12884,14 @@
       </c>
       <c r="D559" s="1">
         <f t="shared" si="18"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E559" s="2">
         <v>9008</v>
       </c>
       <c r="F559" s="1">
         <f t="shared" si="17"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.3">
@@ -12906,14 +12906,14 @@
       </c>
       <c r="D560" s="1">
         <f t="shared" si="18"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E560" s="1">
         <v>9010</v>
       </c>
       <c r="F560" s="1">
         <f t="shared" si="17"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PYJ\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4DD5D1-012A-4964-B6A6-39307B3E2784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E8143A-7A6E-43C2-B06B-FB04414F371A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28800" yWindow="165" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyPass" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Id</t>
   </si>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>unlockAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward3_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F560"/>
+  <dimension ref="A1:H560"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A536" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J552" sqref="J552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -495,7 +503,7 @@
     <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,8 +522,14 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -546,8 +560,14 @@
 IF(E2=9010,4000))))))</f>
         <v>9000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="1">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -578,8 +598,14 @@
 IF(E3=9010,4000))))))</f>
         <v>4000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="1">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -600,8 +626,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="1">
+        <v>88</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -622,8 +654,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -644,8 +682,14 @@
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H6" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -666,8 +710,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -686,8 +736,14 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="3">
+        <v>9039</v>
+      </c>
+      <c r="H8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -713,8 +769,14 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="1">
+        <v>46</v>
+      </c>
+      <c r="H9" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -735,8 +797,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="1">
+        <v>73</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,8 +825,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="1">
+        <v>88</v>
+      </c>
+      <c r="H11" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -779,8 +853,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -801,8 +881,14 @@
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H13" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -823,8 +909,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H14" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -845,8 +937,14 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="1">
+        <v>46</v>
+      </c>
+      <c r="H15" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -867,8 +965,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="1">
+        <v>73</v>
+      </c>
+      <c r="H16" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -889,8 +993,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="1">
+        <v>88</v>
+      </c>
+      <c r="H17" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -911,8 +1021,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H18" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -933,8 +1049,14 @@
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H19" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -955,8 +1077,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H20" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -977,8 +1105,14 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="1">
+        <v>46</v>
+      </c>
+      <c r="H21" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -999,8 +1133,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="1">
+        <v>73</v>
+      </c>
+      <c r="H22" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1021,8 +1161,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="1">
+        <v>88</v>
+      </c>
+      <c r="H23" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1043,8 +1189,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H24" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1065,8 +1217,14 @@
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H25" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1087,8 +1245,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H26" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1109,8 +1273,14 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="1">
+        <v>46</v>
+      </c>
+      <c r="H27" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1131,8 +1301,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="1">
+        <v>73</v>
+      </c>
+      <c r="H28" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1153,8 +1329,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="1">
+        <v>88</v>
+      </c>
+      <c r="H29" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1175,8 +1357,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H30" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1197,8 +1385,14 @@
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H31" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1219,8 +1413,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H32" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1241,8 +1441,14 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="1">
+        <v>46</v>
+      </c>
+      <c r="H33" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1263,8 +1469,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="1">
+        <v>73</v>
+      </c>
+      <c r="H34" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1285,8 +1497,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="1">
+        <v>88</v>
+      </c>
+      <c r="H35" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1307,8 +1525,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H36" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1329,8 +1553,14 @@
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H37" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1351,8 +1581,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H38" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1373,8 +1609,14 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="1">
+        <v>46</v>
+      </c>
+      <c r="H39" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1395,8 +1637,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="1">
+        <v>73</v>
+      </c>
+      <c r="H40" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1417,8 +1665,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="1">
+        <v>88</v>
+      </c>
+      <c r="H41" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1439,8 +1693,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H42" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1461,8 +1721,14 @@
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H43" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1483,8 +1749,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H44" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1505,8 +1777,14 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="1">
+        <v>46</v>
+      </c>
+      <c r="H45" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1527,8 +1805,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="1">
+        <v>73</v>
+      </c>
+      <c r="H46" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1549,8 +1833,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="1">
+        <v>88</v>
+      </c>
+      <c r="H47" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1571,8 +1861,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H48" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1593,8 +1889,14 @@
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H49" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1615,8 +1917,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H50" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1637,8 +1945,14 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="1">
+        <v>46</v>
+      </c>
+      <c r="H51" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1659,8 +1973,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="1">
+        <v>73</v>
+      </c>
+      <c r="H52" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1681,8 +2001,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="1">
+        <v>88</v>
+      </c>
+      <c r="H53" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1703,8 +2029,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H54" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1725,8 +2057,14 @@
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H55" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1747,8 +2085,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H56" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1769,8 +2113,14 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="1">
+        <v>46</v>
+      </c>
+      <c r="H57" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1791,8 +2141,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="1">
+        <v>73</v>
+      </c>
+      <c r="H58" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1813,8 +2169,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="1">
+        <v>88</v>
+      </c>
+      <c r="H59" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1835,8 +2197,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H60" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1857,8 +2225,14 @@
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H61" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1879,8 +2253,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H62" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1901,8 +2281,14 @@
         <f t="shared" si="1"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="1">
+        <v>46</v>
+      </c>
+      <c r="H63" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1923,8 +2309,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="1">
+        <v>73</v>
+      </c>
+      <c r="H64" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1945,8 +2337,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="1">
+        <v>88</v>
+      </c>
+      <c r="H65" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1967,8 +2365,14 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H66" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1994,8 +2398,14 @@
 IF(E67=9010,4000))))))</f>
         <v>6000</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H67" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2016,8 +2426,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H68" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2038,8 +2454,14 @@
         <f t="shared" si="3"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="1">
+        <v>46</v>
+      </c>
+      <c r="H69" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2060,8 +2482,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="1">
+        <v>73</v>
+      </c>
+      <c r="H70" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2082,8 +2510,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="1">
+        <v>88</v>
+      </c>
+      <c r="H71" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2104,8 +2538,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H72" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2131,8 +2571,14 @@
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H73" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2153,8 +2599,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H74" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2175,8 +2627,14 @@
         <f t="shared" si="3"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" s="1">
+        <v>46</v>
+      </c>
+      <c r="H75" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2197,8 +2655,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="1">
+        <v>73</v>
+      </c>
+      <c r="H76" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2219,8 +2683,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="1">
+        <v>88</v>
+      </c>
+      <c r="H77" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2241,8 +2711,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H78" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2263,8 +2739,14 @@
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H79" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2285,8 +2767,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H80" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2307,8 +2795,14 @@
         <f t="shared" si="3"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="1">
+        <v>46</v>
+      </c>
+      <c r="H81" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2329,8 +2823,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" s="1">
+        <v>73</v>
+      </c>
+      <c r="H82" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2351,8 +2851,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="1">
+        <v>88</v>
+      </c>
+      <c r="H83" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2373,8 +2879,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H84" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2395,8 +2907,14 @@
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H85" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2417,8 +2935,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H86" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2439,8 +2963,14 @@
         <f t="shared" si="3"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" s="1">
+        <v>46</v>
+      </c>
+      <c r="H87" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2461,8 +2991,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="1">
+        <v>73</v>
+      </c>
+      <c r="H88" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2483,8 +3019,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" s="1">
+        <v>88</v>
+      </c>
+      <c r="H89" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2505,8 +3047,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H90" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2527,8 +3075,14 @@
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H91" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2549,8 +3103,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H92" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2571,8 +3131,14 @@
         <f t="shared" si="3"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" s="1">
+        <v>46</v>
+      </c>
+      <c r="H93" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2593,8 +3159,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" s="1">
+        <v>73</v>
+      </c>
+      <c r="H94" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2615,8 +3187,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" s="1">
+        <v>88</v>
+      </c>
+      <c r="H95" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2637,8 +3215,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H96" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2659,8 +3243,14 @@
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H97" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2681,8 +3271,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H98" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2703,8 +3299,14 @@
         <f t="shared" si="3"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" s="1">
+        <v>46</v>
+      </c>
+      <c r="H99" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2725,8 +3327,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" s="1">
+        <v>73</v>
+      </c>
+      <c r="H100" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2747,8 +3355,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" s="1">
+        <v>88</v>
+      </c>
+      <c r="H101" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2769,8 +3383,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H102" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2791,8 +3411,14 @@
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H103" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2813,8 +3439,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H104" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2835,8 +3467,14 @@
         <f t="shared" si="3"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" s="1">
+        <v>46</v>
+      </c>
+      <c r="H105" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2857,8 +3495,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" s="1">
+        <v>73</v>
+      </c>
+      <c r="H106" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2879,8 +3523,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" s="1">
+        <v>88</v>
+      </c>
+      <c r="H107" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2901,8 +3551,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H108" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2923,8 +3579,14 @@
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H109" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2945,8 +3607,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H110" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2967,8 +3635,14 @@
         <f t="shared" si="3"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" s="1">
+        <v>46</v>
+      </c>
+      <c r="H111" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2989,8 +3663,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" s="1">
+        <v>73</v>
+      </c>
+      <c r="H112" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3011,8 +3691,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" s="1">
+        <v>88</v>
+      </c>
+      <c r="H113" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3033,8 +3719,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H114" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3055,8 +3747,14 @@
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H115" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3077,8 +3775,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H116" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3099,8 +3803,14 @@
         <f t="shared" si="3"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" s="1">
+        <v>46</v>
+      </c>
+      <c r="H117" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3121,8 +3831,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" s="1">
+        <v>73</v>
+      </c>
+      <c r="H118" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3143,8 +3859,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" s="1">
+        <v>88</v>
+      </c>
+      <c r="H119" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3165,8 +3887,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H120" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3187,8 +3915,14 @@
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H121" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3209,8 +3943,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H122" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3231,8 +3971,14 @@
         <f t="shared" si="3"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" s="1">
+        <v>46</v>
+      </c>
+      <c r="H123" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3253,8 +3999,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" s="1">
+        <v>73</v>
+      </c>
+      <c r="H124" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3275,8 +4027,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" s="1">
+        <v>88</v>
+      </c>
+      <c r="H125" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3297,8 +4055,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H126" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3319,8 +4083,14 @@
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H127" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3341,8 +4111,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H128" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3363,8 +4139,14 @@
         <f t="shared" si="3"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" s="1">
+        <v>46</v>
+      </c>
+      <c r="H129" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3385,8 +4167,14 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" s="1">
+        <v>73</v>
+      </c>
+      <c r="H130" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3412,8 +4200,14 @@
 IF(E131=9010,4000))))))</f>
         <v>4000</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" s="1">
+        <v>88</v>
+      </c>
+      <c r="H131" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3434,8 +4228,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H132" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3456,8 +4256,14 @@
         <f t="shared" si="5"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H133" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3478,8 +4284,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H134" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3500,8 +4312,14 @@
         <f t="shared" si="5"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" s="1">
+        <v>46</v>
+      </c>
+      <c r="H135" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3522,8 +4340,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" s="1">
+        <v>73</v>
+      </c>
+      <c r="H136" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3549,8 +4373,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" s="1">
+        <v>88</v>
+      </c>
+      <c r="H137" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3571,8 +4401,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H138" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3593,8 +4429,14 @@
         <f t="shared" si="5"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H139" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3615,8 +4457,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H140" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3637,8 +4485,14 @@
         <f t="shared" si="5"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" s="1">
+        <v>46</v>
+      </c>
+      <c r="H141" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3659,8 +4513,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" s="1">
+        <v>73</v>
+      </c>
+      <c r="H142" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3681,8 +4541,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" s="1">
+        <v>88</v>
+      </c>
+      <c r="H143" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3703,8 +4569,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H144" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3725,8 +4597,14 @@
         <f t="shared" si="5"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H145" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3747,8 +4625,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H146" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3769,8 +4653,14 @@
         <f t="shared" si="5"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147" s="1">
+        <v>46</v>
+      </c>
+      <c r="H147" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3791,8 +4681,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148" s="1">
+        <v>73</v>
+      </c>
+      <c r="H148" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3813,8 +4709,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149" s="1">
+        <v>88</v>
+      </c>
+      <c r="H149" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3835,8 +4737,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H150" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3857,8 +4765,14 @@
         <f t="shared" si="5"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H151" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3879,8 +4793,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H152" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3901,8 +4821,14 @@
         <f t="shared" si="5"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G153" s="1">
+        <v>46</v>
+      </c>
+      <c r="H153" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3923,8 +4849,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154" s="1">
+        <v>73</v>
+      </c>
+      <c r="H154" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3945,8 +4877,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155" s="1">
+        <v>88</v>
+      </c>
+      <c r="H155" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3967,8 +4905,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G156" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H156" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3989,8 +4933,14 @@
         <f t="shared" si="5"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G157" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H157" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4011,8 +4961,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H158" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4033,8 +4989,14 @@
         <f t="shared" si="5"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G159" s="1">
+        <v>46</v>
+      </c>
+      <c r="H159" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4055,8 +5017,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G160" s="1">
+        <v>73</v>
+      </c>
+      <c r="H160" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4077,8 +5045,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G161" s="1">
+        <v>88</v>
+      </c>
+      <c r="H161" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4099,8 +5073,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H162" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4121,8 +5101,14 @@
         <f t="shared" si="5"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H163" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4143,8 +5129,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H164" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4165,8 +5157,14 @@
         <f t="shared" si="5"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G165" s="1">
+        <v>46</v>
+      </c>
+      <c r="H165" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4187,8 +5185,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166" s="1">
+        <v>73</v>
+      </c>
+      <c r="H166" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4209,8 +5213,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167" s="1">
+        <v>88</v>
+      </c>
+      <c r="H167" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4231,8 +5241,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H168" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4253,8 +5269,14 @@
         <f t="shared" si="5"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H169" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4275,8 +5297,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G170" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H170" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4297,8 +5325,14 @@
         <f t="shared" si="5"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G171" s="1">
+        <v>46</v>
+      </c>
+      <c r="H171" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4319,8 +5353,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G172" s="1">
+        <v>73</v>
+      </c>
+      <c r="H172" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4341,8 +5381,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G173" s="1">
+        <v>88</v>
+      </c>
+      <c r="H173" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4363,8 +5409,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G174" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H174" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4385,8 +5437,14 @@
         <f t="shared" si="5"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G175" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H175" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4407,8 +5465,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G176" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H176" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4429,8 +5493,14 @@
         <f t="shared" si="5"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177" s="1">
+        <v>46</v>
+      </c>
+      <c r="H177" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4451,8 +5521,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G178" s="1">
+        <v>73</v>
+      </c>
+      <c r="H178" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4473,8 +5549,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G179" s="1">
+        <v>88</v>
+      </c>
+      <c r="H179" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4495,8 +5577,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G180" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H180" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4517,8 +5605,14 @@
         <f t="shared" si="5"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G181" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H181" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4539,8 +5633,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G182" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H182" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4561,8 +5661,14 @@
         <f t="shared" si="5"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G183" s="1">
+        <v>46</v>
+      </c>
+      <c r="H183" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4583,8 +5689,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G184" s="1">
+        <v>73</v>
+      </c>
+      <c r="H184" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4605,8 +5717,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G185" s="1">
+        <v>88</v>
+      </c>
+      <c r="H185" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4627,8 +5745,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G186" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H186" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4649,8 +5773,14 @@
         <f t="shared" si="5"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G187" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H187" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4671,8 +5801,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G188" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H188" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4693,8 +5829,14 @@
         <f t="shared" si="5"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G189" s="1">
+        <v>46</v>
+      </c>
+      <c r="H189" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4715,8 +5857,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G190" s="1">
+        <v>73</v>
+      </c>
+      <c r="H190" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4737,8 +5885,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G191" s="1">
+        <v>88</v>
+      </c>
+      <c r="H191" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4759,8 +5913,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G192" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H192" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4781,8 +5941,14 @@
         <f t="shared" si="5"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G193" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H193" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4803,8 +5969,14 @@
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G194" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H194" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4830,8 +6002,14 @@
 IF(E195=9010,4000))))))</f>
         <v>9000</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G195" s="1">
+        <v>46</v>
+      </c>
+      <c r="H195" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4852,8 +6030,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G196" s="1">
+        <v>73</v>
+      </c>
+      <c r="H196" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4874,8 +6058,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G197" s="1">
+        <v>88</v>
+      </c>
+      <c r="H197" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4896,8 +6086,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G198" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H198" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4918,8 +6114,14 @@
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G199" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H199" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4940,8 +6142,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G200" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H200" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -4967,8 +6175,14 @@
         <f t="shared" si="7"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G201" s="1">
+        <v>46</v>
+      </c>
+      <c r="H201" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -4989,8 +6203,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G202" s="1">
+        <v>73</v>
+      </c>
+      <c r="H202" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5011,8 +6231,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G203" s="1">
+        <v>88</v>
+      </c>
+      <c r="H203" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5033,8 +6259,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G204" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H204" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -5055,8 +6287,14 @@
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G205" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H205" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5077,8 +6315,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G206" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H206" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5099,8 +6343,14 @@
         <f t="shared" si="7"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G207" s="1">
+        <v>46</v>
+      </c>
+      <c r="H207" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5121,8 +6371,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G208" s="1">
+        <v>73</v>
+      </c>
+      <c r="H208" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5143,8 +6399,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G209" s="1">
+        <v>88</v>
+      </c>
+      <c r="H209" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5165,8 +6427,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G210" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H210" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5187,8 +6455,14 @@
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G211" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H211" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5209,8 +6483,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G212" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H212" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -5231,8 +6511,14 @@
         <f t="shared" si="7"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G213" s="1">
+        <v>46</v>
+      </c>
+      <c r="H213" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -5253,8 +6539,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G214" s="1">
+        <v>73</v>
+      </c>
+      <c r="H214" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -5275,8 +6567,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G215" s="1">
+        <v>88</v>
+      </c>
+      <c r="H215" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -5297,8 +6595,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G216" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H216" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -5319,8 +6623,14 @@
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G217" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H217" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -5341,8 +6651,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G218" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H218" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -5363,8 +6679,14 @@
         <f t="shared" si="7"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G219" s="1">
+        <v>46</v>
+      </c>
+      <c r="H219" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -5385,8 +6707,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G220" s="1">
+        <v>73</v>
+      </c>
+      <c r="H220" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -5407,8 +6735,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G221" s="1">
+        <v>88</v>
+      </c>
+      <c r="H221" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -5429,8 +6763,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G222" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H222" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -5451,8 +6791,14 @@
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G223" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H223" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -5473,8 +6819,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G224" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H224" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -5495,8 +6847,14 @@
         <f t="shared" si="7"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G225" s="1">
+        <v>46</v>
+      </c>
+      <c r="H225" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -5517,8 +6875,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G226" s="1">
+        <v>73</v>
+      </c>
+      <c r="H226" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -5539,8 +6903,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G227" s="1">
+        <v>88</v>
+      </c>
+      <c r="H227" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -5561,8 +6931,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G228" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H228" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -5583,8 +6959,14 @@
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G229" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H229" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -5605,8 +6987,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G230" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H230" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5627,8 +7015,14 @@
         <f t="shared" si="7"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G231" s="1">
+        <v>46</v>
+      </c>
+      <c r="H231" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5649,8 +7043,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G232" s="1">
+        <v>73</v>
+      </c>
+      <c r="H232" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5671,8 +7071,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G233" s="1">
+        <v>88</v>
+      </c>
+      <c r="H233" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -5693,8 +7099,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G234" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H234" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5715,8 +7127,14 @@
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G235" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H235" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5737,8 +7155,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G236" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H236" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -5759,8 +7183,14 @@
         <f t="shared" si="7"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G237" s="1">
+        <v>46</v>
+      </c>
+      <c r="H237" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5781,8 +7211,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G238" s="1">
+        <v>73</v>
+      </c>
+      <c r="H238" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5803,8 +7239,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G239" s="1">
+        <v>88</v>
+      </c>
+      <c r="H239" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -5825,8 +7267,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G240" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H240" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5847,8 +7295,14 @@
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G241" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H241" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5869,8 +7323,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G242" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H242" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5891,8 +7351,14 @@
         <f t="shared" si="7"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G243" s="1">
+        <v>46</v>
+      </c>
+      <c r="H243" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -5913,8 +7379,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G244" s="1">
+        <v>73</v>
+      </c>
+      <c r="H244" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -5935,8 +7407,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G245" s="1">
+        <v>88</v>
+      </c>
+      <c r="H245" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -5957,8 +7435,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G246" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H246" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -5979,8 +7463,14 @@
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G247" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H247" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -6001,8 +7491,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G248" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H248" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -6023,8 +7519,14 @@
         <f t="shared" si="7"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G249" s="1">
+        <v>46</v>
+      </c>
+      <c r="H249" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -6045,8 +7547,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G250" s="1">
+        <v>73</v>
+      </c>
+      <c r="H250" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -6067,8 +7575,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G251" s="1">
+        <v>88</v>
+      </c>
+      <c r="H251" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -6089,8 +7603,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G252" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H252" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -6111,8 +7631,14 @@
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G253" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H253" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -6133,8 +7659,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G254" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H254" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -6155,8 +7687,14 @@
         <f t="shared" si="7"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G255" s="1">
+        <v>46</v>
+      </c>
+      <c r="H255" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -6177,8 +7715,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G256" s="1">
+        <v>73</v>
+      </c>
+      <c r="H256" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -6199,8 +7743,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G257" s="1">
+        <v>88</v>
+      </c>
+      <c r="H257" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -6221,8 +7771,14 @@
         <f t="shared" si="7"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G258" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H258" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -6248,8 +7804,14 @@
 IF(E259=9010,4000))))))</f>
         <v>6000</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G259" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H259" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -6270,8 +7832,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G260" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H260" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -6292,8 +7860,14 @@
         <f t="shared" si="9"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G261" s="1">
+        <v>46</v>
+      </c>
+      <c r="H261" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -6314,8 +7888,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G262" s="1">
+        <v>73</v>
+      </c>
+      <c r="H262" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -6336,8 +7916,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G263" s="1">
+        <v>88</v>
+      </c>
+      <c r="H263" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -6358,8 +7944,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G264" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H264" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -6385,8 +7977,14 @@
         <f t="shared" si="9"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G265" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H265" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -6407,8 +8005,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G266" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H266" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -6429,8 +8033,14 @@
         <f t="shared" si="9"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G267" s="1">
+        <v>46</v>
+      </c>
+      <c r="H267" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -6451,8 +8061,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G268" s="1">
+        <v>73</v>
+      </c>
+      <c r="H268" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -6473,8 +8089,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G269" s="1">
+        <v>88</v>
+      </c>
+      <c r="H269" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -6495,8 +8117,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G270" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H270" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -6517,8 +8145,14 @@
         <f t="shared" si="9"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G271" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H271" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -6539,8 +8173,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G272" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H272" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -6561,8 +8201,14 @@
         <f t="shared" si="9"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G273" s="1">
+        <v>46</v>
+      </c>
+      <c r="H273" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -6583,8 +8229,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G274" s="1">
+        <v>73</v>
+      </c>
+      <c r="H274" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -6605,8 +8257,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G275" s="1">
+        <v>88</v>
+      </c>
+      <c r="H275" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -6627,8 +8285,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G276" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H276" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -6649,8 +8313,14 @@
         <f t="shared" si="9"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G277" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H277" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -6671,8 +8341,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G278" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H278" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -6693,8 +8369,14 @@
         <f t="shared" si="9"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G279" s="1">
+        <v>46</v>
+      </c>
+      <c r="H279" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -6715,8 +8397,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G280" s="1">
+        <v>73</v>
+      </c>
+      <c r="H280" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -6737,8 +8425,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G281" s="1">
+        <v>88</v>
+      </c>
+      <c r="H281" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -6759,8 +8453,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G282" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H282" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -6781,8 +8481,14 @@
         <f t="shared" si="9"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G283" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H283" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -6803,8 +8509,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G284" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H284" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -6825,8 +8537,14 @@
         <f t="shared" si="9"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G285" s="1">
+        <v>46</v>
+      </c>
+      <c r="H285" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -6847,8 +8565,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G286" s="1">
+        <v>73</v>
+      </c>
+      <c r="H286" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -6869,8 +8593,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G287" s="1">
+        <v>88</v>
+      </c>
+      <c r="H287" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -6891,8 +8621,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G288" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H288" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -6913,8 +8649,14 @@
         <f t="shared" si="9"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G289" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H289" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -6935,8 +8677,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G290" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H290" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -6957,8 +8705,14 @@
         <f t="shared" si="9"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G291" s="1">
+        <v>46</v>
+      </c>
+      <c r="H291" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -6979,8 +8733,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G292" s="1">
+        <v>73</v>
+      </c>
+      <c r="H292" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -7001,8 +8761,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G293" s="1">
+        <v>88</v>
+      </c>
+      <c r="H293" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -7023,8 +8789,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G294" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H294" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -7045,8 +8817,14 @@
         <f t="shared" si="9"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G295" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H295" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -7067,8 +8845,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G296" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H296" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -7089,8 +8873,14 @@
         <f t="shared" si="9"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G297" s="1">
+        <v>46</v>
+      </c>
+      <c r="H297" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -7111,8 +8901,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G298" s="1">
+        <v>73</v>
+      </c>
+      <c r="H298" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -7133,8 +8929,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G299" s="1">
+        <v>88</v>
+      </c>
+      <c r="H299" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -7155,8 +8957,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G300" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H300" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -7177,8 +8985,14 @@
         <f t="shared" si="9"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G301" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H301" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -7199,8 +9013,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G302" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H302" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -7221,8 +9041,14 @@
         <f t="shared" si="9"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G303" s="1">
+        <v>46</v>
+      </c>
+      <c r="H303" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -7243,8 +9069,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G304" s="1">
+        <v>73</v>
+      </c>
+      <c r="H304" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -7265,8 +9097,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G305" s="1">
+        <v>88</v>
+      </c>
+      <c r="H305" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -7287,8 +9125,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G306" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H306" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -7309,8 +9153,14 @@
         <f t="shared" si="9"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G307" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H307" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -7331,8 +9181,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G308" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H308" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -7353,8 +9209,14 @@
         <f t="shared" si="9"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G309" s="1">
+        <v>46</v>
+      </c>
+      <c r="H309" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -7375,8 +9237,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G310" s="1">
+        <v>73</v>
+      </c>
+      <c r="H310" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -7397,8 +9265,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G311" s="1">
+        <v>88</v>
+      </c>
+      <c r="H311" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -7419,8 +9293,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G312" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H312" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -7441,8 +9321,14 @@
         <f t="shared" si="9"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G313" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H313" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -7463,8 +9349,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G314" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H314" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -7485,8 +9377,14 @@
         <f t="shared" si="9"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G315" s="1">
+        <v>46</v>
+      </c>
+      <c r="H315" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -7507,8 +9405,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G316" s="1">
+        <v>73</v>
+      </c>
+      <c r="H316" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -7529,8 +9433,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G317" s="1">
+        <v>88</v>
+      </c>
+      <c r="H317" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -7551,8 +9461,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G318" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H318" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -7573,8 +9489,14 @@
         <f t="shared" si="9"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G319" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H319" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -7595,8 +9517,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G320" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H320" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -7617,8 +9545,14 @@
         <f t="shared" si="9"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G321" s="1">
+        <v>46</v>
+      </c>
+      <c r="H321" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -7639,8 +9573,14 @@
         <f t="shared" si="9"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G322" s="1">
+        <v>73</v>
+      </c>
+      <c r="H322" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -7666,8 +9606,14 @@
 IF(E323=9010,4000))))))</f>
         <v>4000</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G323" s="1">
+        <v>88</v>
+      </c>
+      <c r="H323" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -7688,8 +9634,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G324" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H324" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -7710,8 +9662,14 @@
         <f t="shared" si="11"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G325" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H325" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -7732,8 +9690,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G326" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H326" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -7754,8 +9718,14 @@
         <f t="shared" si="11"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G327" s="1">
+        <v>46</v>
+      </c>
+      <c r="H327" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -7776,8 +9746,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G328" s="1">
+        <v>73</v>
+      </c>
+      <c r="H328" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -7803,8 +9779,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G329" s="1">
+        <v>88</v>
+      </c>
+      <c r="H329" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -7825,8 +9807,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G330" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H330" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -7847,8 +9835,14 @@
         <f t="shared" si="11"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G331" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H331" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -7869,8 +9863,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G332" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H332" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -7891,8 +9891,14 @@
         <f t="shared" si="11"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G333" s="1">
+        <v>46</v>
+      </c>
+      <c r="H333" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -7913,8 +9919,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G334" s="1">
+        <v>73</v>
+      </c>
+      <c r="H334" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -7935,8 +9947,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G335" s="1">
+        <v>88</v>
+      </c>
+      <c r="H335" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -7957,8 +9975,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G336" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H336" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -7979,8 +10003,14 @@
         <f t="shared" si="11"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G337" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H337" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -8001,8 +10031,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G338" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H338" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -8023,8 +10059,14 @@
         <f t="shared" si="11"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G339" s="1">
+        <v>46</v>
+      </c>
+      <c r="H339" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -8045,8 +10087,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G340" s="1">
+        <v>73</v>
+      </c>
+      <c r="H340" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -8067,8 +10115,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G341" s="1">
+        <v>88</v>
+      </c>
+      <c r="H341" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -8089,8 +10143,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G342" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H342" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -8111,8 +10171,14 @@
         <f t="shared" si="11"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G343" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H343" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -8133,8 +10199,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G344" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H344" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -8155,8 +10227,14 @@
         <f t="shared" si="11"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G345" s="1">
+        <v>46</v>
+      </c>
+      <c r="H345" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -8177,8 +10255,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G346" s="1">
+        <v>73</v>
+      </c>
+      <c r="H346" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -8199,8 +10283,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G347" s="1">
+        <v>88</v>
+      </c>
+      <c r="H347" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -8221,8 +10311,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G348" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H348" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -8243,8 +10339,14 @@
         <f t="shared" si="11"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G349" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H349" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -8265,8 +10367,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G350" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H350" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -8287,8 +10395,14 @@
         <f t="shared" si="11"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G351" s="1">
+        <v>46</v>
+      </c>
+      <c r="H351" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -8309,8 +10423,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G352" s="1">
+        <v>73</v>
+      </c>
+      <c r="H352" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -8331,8 +10451,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G353" s="1">
+        <v>88</v>
+      </c>
+      <c r="H353" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -8353,8 +10479,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G354" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H354" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -8375,8 +10507,14 @@
         <f t="shared" si="11"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G355" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H355" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -8397,8 +10535,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G356" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H356" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -8419,8 +10563,14 @@
         <f t="shared" si="11"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G357" s="1">
+        <v>46</v>
+      </c>
+      <c r="H357" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -8441,8 +10591,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G358" s="1">
+        <v>73</v>
+      </c>
+      <c r="H358" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -8463,8 +10619,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G359" s="1">
+        <v>88</v>
+      </c>
+      <c r="H359" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -8485,8 +10647,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G360" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H360" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -8507,8 +10675,14 @@
         <f t="shared" si="11"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G361" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H361" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -8529,8 +10703,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G362" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H362" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -8551,8 +10731,14 @@
         <f t="shared" si="11"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G363" s="1">
+        <v>46</v>
+      </c>
+      <c r="H363" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -8573,8 +10759,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G364" s="1">
+        <v>73</v>
+      </c>
+      <c r="H364" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -8595,8 +10787,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G365" s="1">
+        <v>88</v>
+      </c>
+      <c r="H365" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -8617,8 +10815,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G366" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H366" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -8639,8 +10843,14 @@
         <f t="shared" si="11"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G367" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H367" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -8661,8 +10871,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G368" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H368" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -8683,8 +10899,14 @@
         <f t="shared" si="11"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G369" s="1">
+        <v>46</v>
+      </c>
+      <c r="H369" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -8705,8 +10927,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G370" s="1">
+        <v>73</v>
+      </c>
+      <c r="H370" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -8727,8 +10955,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G371" s="1">
+        <v>88</v>
+      </c>
+      <c r="H371" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -8749,8 +10983,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G372" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H372" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -8771,8 +11011,14 @@
         <f t="shared" si="11"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G373" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H373" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -8793,8 +11039,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G374" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H374" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -8815,8 +11067,14 @@
         <f t="shared" si="11"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G375" s="1">
+        <v>46</v>
+      </c>
+      <c r="H375" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -8837,8 +11095,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G376" s="1">
+        <v>73</v>
+      </c>
+      <c r="H376" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -8859,8 +11123,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G377" s="1">
+        <v>88</v>
+      </c>
+      <c r="H377" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -8881,8 +11151,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G378" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H378" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -8903,8 +11179,14 @@
         <f t="shared" si="11"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G379" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H379" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -8925,8 +11207,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G380" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H380" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -8947,8 +11235,14 @@
         <f t="shared" si="11"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G381" s="1">
+        <v>46</v>
+      </c>
+      <c r="H381" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -8969,8 +11263,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G382" s="1">
+        <v>73</v>
+      </c>
+      <c r="H382" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -8991,8 +11291,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G383" s="1">
+        <v>88</v>
+      </c>
+      <c r="H383" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -9013,8 +11319,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G384" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H384" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -9035,8 +11347,14 @@
         <f t="shared" si="11"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G385" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H385" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -9057,8 +11375,14 @@
         <f t="shared" si="11"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G386" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H386" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -9084,8 +11408,14 @@
 IF(E387=9010,4000))))))</f>
         <v>9000</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G387" s="1">
+        <v>46</v>
+      </c>
+      <c r="H387" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -9106,8 +11436,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G388" s="1">
+        <v>73</v>
+      </c>
+      <c r="H388" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -9128,8 +11464,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G389" s="1">
+        <v>88</v>
+      </c>
+      <c r="H389" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -9150,8 +11492,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G390" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H390" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -9172,8 +11520,14 @@
         <f t="shared" si="13"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G391" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H391" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -9194,8 +11548,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G392" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H392" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -9221,8 +11581,14 @@
         <f t="shared" si="13"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G393" s="1">
+        <v>46</v>
+      </c>
+      <c r="H393" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -9243,8 +11609,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G394" s="1">
+        <v>73</v>
+      </c>
+      <c r="H394" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -9265,8 +11637,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G395" s="1">
+        <v>88</v>
+      </c>
+      <c r="H395" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -9287,8 +11665,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G396" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H396" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -9309,8 +11693,14 @@
         <f t="shared" si="13"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G397" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H397" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -9331,8 +11721,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G398" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H398" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -9353,8 +11749,14 @@
         <f t="shared" si="13"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G399" s="1">
+        <v>46</v>
+      </c>
+      <c r="H399" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -9375,8 +11777,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G400" s="1">
+        <v>73</v>
+      </c>
+      <c r="H400" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -9397,8 +11805,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G401" s="1">
+        <v>88</v>
+      </c>
+      <c r="H401" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -9419,8 +11833,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G402" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H402" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -9441,8 +11861,14 @@
         <f t="shared" si="13"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G403" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H403" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -9463,8 +11889,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G404" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H404" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -9485,8 +11917,14 @@
         <f t="shared" si="13"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G405" s="1">
+        <v>46</v>
+      </c>
+      <c r="H405" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -9507,8 +11945,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G406" s="1">
+        <v>73</v>
+      </c>
+      <c r="H406" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -9529,8 +11973,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G407" s="1">
+        <v>88</v>
+      </c>
+      <c r="H407" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -9551,8 +12001,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G408" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H408" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -9573,8 +12029,14 @@
         <f t="shared" si="13"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G409" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H409" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -9595,8 +12057,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G410" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H410" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -9617,8 +12085,14 @@
         <f t="shared" si="13"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G411" s="1">
+        <v>46</v>
+      </c>
+      <c r="H411" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -9639,8 +12113,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G412" s="1">
+        <v>73</v>
+      </c>
+      <c r="H412" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -9661,8 +12141,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G413" s="1">
+        <v>88</v>
+      </c>
+      <c r="H413" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -9683,8 +12169,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G414" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H414" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -9705,8 +12197,14 @@
         <f t="shared" si="13"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G415" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H415" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -9727,8 +12225,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G416" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H416" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -9749,8 +12253,14 @@
         <f t="shared" si="13"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G417" s="1">
+        <v>46</v>
+      </c>
+      <c r="H417" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -9771,8 +12281,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G418" s="1">
+        <v>73</v>
+      </c>
+      <c r="H418" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -9793,8 +12309,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G419" s="1">
+        <v>88</v>
+      </c>
+      <c r="H419" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -9815,8 +12337,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G420" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H420" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -9837,8 +12365,14 @@
         <f t="shared" si="13"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G421" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H421" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -9859,8 +12393,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G422" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H422" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -9881,8 +12421,14 @@
         <f t="shared" si="13"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G423" s="1">
+        <v>46</v>
+      </c>
+      <c r="H423" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -9903,8 +12449,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G424" s="1">
+        <v>73</v>
+      </c>
+      <c r="H424" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -9925,8 +12477,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G425" s="1">
+        <v>88</v>
+      </c>
+      <c r="H425" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -9947,8 +12505,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G426" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H426" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -9969,8 +12533,14 @@
         <f t="shared" si="13"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G427" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H427" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -9991,8 +12561,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G428" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H428" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -10013,8 +12589,14 @@
         <f t="shared" si="13"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G429" s="1">
+        <v>46</v>
+      </c>
+      <c r="H429" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -10035,8 +12617,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G430" s="1">
+        <v>73</v>
+      </c>
+      <c r="H430" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -10057,8 +12645,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G431" s="1">
+        <v>88</v>
+      </c>
+      <c r="H431" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -10079,8 +12673,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G432" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H432" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -10101,8 +12701,14 @@
         <f t="shared" si="13"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G433" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H433" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -10123,8 +12729,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G434" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H434" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -10145,8 +12757,14 @@
         <f t="shared" si="13"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G435" s="1">
+        <v>46</v>
+      </c>
+      <c r="H435" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -10167,8 +12785,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G436" s="1">
+        <v>73</v>
+      </c>
+      <c r="H436" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -10189,8 +12813,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G437" s="1">
+        <v>88</v>
+      </c>
+      <c r="H437" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -10211,8 +12841,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G438" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H438" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -10233,8 +12869,14 @@
         <f t="shared" si="13"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G439" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H439" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -10255,8 +12897,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G440" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H440" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -10277,8 +12925,14 @@
         <f t="shared" si="13"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G441" s="1">
+        <v>46</v>
+      </c>
+      <c r="H441" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -10299,8 +12953,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G442" s="1">
+        <v>73</v>
+      </c>
+      <c r="H442" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -10321,8 +12981,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G443" s="1">
+        <v>88</v>
+      </c>
+      <c r="H443" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -10343,8 +13009,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G444" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H444" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -10365,8 +13037,14 @@
         <f t="shared" si="13"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G445" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H445" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -10387,8 +13065,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G446" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H446" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -10409,8 +13093,14 @@
         <f t="shared" si="13"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G447" s="1">
+        <v>46</v>
+      </c>
+      <c r="H447" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -10431,8 +13121,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G448" s="1">
+        <v>73</v>
+      </c>
+      <c r="H448" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -10453,8 +13149,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G449" s="1">
+        <v>88</v>
+      </c>
+      <c r="H449" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -10475,8 +13177,14 @@
         <f t="shared" si="13"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G450" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H450" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -10502,8 +13210,14 @@
 IF(E451=9010,4000))))))</f>
         <v>6000</v>
       </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G451" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H451" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -10524,8 +13238,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G452" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H452" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -10546,8 +13266,14 @@
         <f t="shared" si="15"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G453" s="1">
+        <v>46</v>
+      </c>
+      <c r="H453" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -10568,8 +13294,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G454" s="1">
+        <v>73</v>
+      </c>
+      <c r="H454" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -10590,8 +13322,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G455" s="1">
+        <v>88</v>
+      </c>
+      <c r="H455" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -10612,8 +13350,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G456" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H456" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -10639,8 +13383,14 @@
         <f t="shared" si="15"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G457" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H457" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -10661,8 +13411,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G458" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H458" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -10683,8 +13439,14 @@
         <f t="shared" si="15"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G459" s="1">
+        <v>46</v>
+      </c>
+      <c r="H459" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -10705,8 +13467,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G460" s="1">
+        <v>73</v>
+      </c>
+      <c r="H460" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -10727,8 +13495,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G461" s="1">
+        <v>88</v>
+      </c>
+      <c r="H461" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -10749,8 +13523,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G462" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H462" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -10771,8 +13551,14 @@
         <f t="shared" si="15"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G463" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H463" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -10793,8 +13579,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G464" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H464" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -10815,8 +13607,14 @@
         <f t="shared" si="15"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G465" s="1">
+        <v>46</v>
+      </c>
+      <c r="H465" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -10837,8 +13635,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G466" s="1">
+        <v>73</v>
+      </c>
+      <c r="H466" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -10859,8 +13663,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G467" s="1">
+        <v>88</v>
+      </c>
+      <c r="H467" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -10881,8 +13691,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G468" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H468" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -10903,8 +13719,14 @@
         <f t="shared" si="15"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G469" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H469" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -10925,8 +13747,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G470" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H470" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -10947,8 +13775,14 @@
         <f t="shared" si="15"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G471" s="1">
+        <v>46</v>
+      </c>
+      <c r="H471" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -10969,8 +13803,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G472" s="1">
+        <v>73</v>
+      </c>
+      <c r="H472" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -10991,8 +13831,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G473" s="1">
+        <v>88</v>
+      </c>
+      <c r="H473" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -11013,8 +13859,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G474" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H474" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -11035,8 +13887,14 @@
         <f t="shared" si="15"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G475" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H475" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -11057,8 +13915,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G476" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H476" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -11079,8 +13943,14 @@
         <f t="shared" si="15"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G477" s="1">
+        <v>46</v>
+      </c>
+      <c r="H477" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -11101,8 +13971,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G478" s="1">
+        <v>73</v>
+      </c>
+      <c r="H478" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -11123,8 +13999,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G479" s="1">
+        <v>88</v>
+      </c>
+      <c r="H479" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -11145,8 +14027,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G480" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H480" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -11167,8 +14055,14 @@
         <f t="shared" si="15"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G481" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H481" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -11189,8 +14083,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G482" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H482" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -11211,8 +14111,14 @@
         <f t="shared" si="15"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G483" s="1">
+        <v>46</v>
+      </c>
+      <c r="H483" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -11233,8 +14139,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G484" s="1">
+        <v>73</v>
+      </c>
+      <c r="H484" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -11255,8 +14167,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G485" s="1">
+        <v>88</v>
+      </c>
+      <c r="H485" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -11277,8 +14195,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G486" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H486" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -11299,8 +14223,14 @@
         <f t="shared" si="15"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G487" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H487" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -11321,8 +14251,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G488" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H488" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -11343,8 +14279,14 @@
         <f t="shared" si="15"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G489" s="1">
+        <v>46</v>
+      </c>
+      <c r="H489" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -11365,8 +14307,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G490" s="1">
+        <v>73</v>
+      </c>
+      <c r="H490" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -11387,8 +14335,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G491" s="1">
+        <v>88</v>
+      </c>
+      <c r="H491" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -11409,8 +14363,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G492" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H492" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -11431,8 +14391,14 @@
         <f t="shared" si="15"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G493" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H493" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -11453,8 +14419,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G494" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H494" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -11475,8 +14447,14 @@
         <f t="shared" si="15"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G495" s="1">
+        <v>46</v>
+      </c>
+      <c r="H495" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -11497,8 +14475,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G496" s="1">
+        <v>73</v>
+      </c>
+      <c r="H496" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -11519,8 +14503,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G497" s="1">
+        <v>88</v>
+      </c>
+      <c r="H497" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -11541,8 +14531,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G498" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H498" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -11563,8 +14559,14 @@
         <f t="shared" si="15"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G499" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H499" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -11585,8 +14587,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G500" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H500" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -11607,8 +14615,14 @@
         <f t="shared" si="15"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G501" s="1">
+        <v>46</v>
+      </c>
+      <c r="H501" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -11629,8 +14643,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G502" s="1">
+        <v>73</v>
+      </c>
+      <c r="H502" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -11651,8 +14671,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G503" s="1">
+        <v>88</v>
+      </c>
+      <c r="H503" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -11673,8 +14699,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G504" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H504" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -11695,8 +14727,14 @@
         <f t="shared" si="15"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G505" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H505" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -11717,8 +14755,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G506" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H506" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -11739,8 +14783,14 @@
         <f t="shared" si="15"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G507" s="1">
+        <v>46</v>
+      </c>
+      <c r="H507" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -11761,8 +14811,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G508" s="1">
+        <v>73</v>
+      </c>
+      <c r="H508" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -11783,8 +14839,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G509" s="1">
+        <v>88</v>
+      </c>
+      <c r="H509" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -11805,8 +14867,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G510" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H510" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -11827,8 +14895,14 @@
         <f t="shared" si="15"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G511" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H511" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -11849,8 +14923,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G512" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H512" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -11871,8 +14951,14 @@
         <f t="shared" si="15"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G513" s="1">
+        <v>46</v>
+      </c>
+      <c r="H513" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -11893,8 +14979,14 @@
         <f t="shared" si="15"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G514" s="1">
+        <v>73</v>
+      </c>
+      <c r="H514" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -11920,8 +15012,14 @@
 IF(E515=9010,4000))))))</f>
         <v>4000</v>
       </c>
-    </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G515" s="1">
+        <v>88</v>
+      </c>
+      <c r="H515" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -11942,8 +15040,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G516" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H516" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -11964,8 +15068,14 @@
         <f t="shared" si="17"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G517" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H517" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -11986,8 +15096,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G518" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H518" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -12008,8 +15124,14 @@
         <f t="shared" si="17"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G519" s="1">
+        <v>46</v>
+      </c>
+      <c r="H519" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -12030,8 +15152,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G520" s="1">
+        <v>73</v>
+      </c>
+      <c r="H520" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -12057,8 +15185,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G521" s="1">
+        <v>88</v>
+      </c>
+      <c r="H521" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -12079,8 +15213,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G522" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H522" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -12101,8 +15241,14 @@
         <f t="shared" si="17"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G523" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H523" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -12123,8 +15269,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G524" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H524" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -12145,8 +15297,14 @@
         <f t="shared" si="17"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G525" s="1">
+        <v>46</v>
+      </c>
+      <c r="H525" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -12167,8 +15325,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G526" s="1">
+        <v>73</v>
+      </c>
+      <c r="H526" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -12189,8 +15353,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G527" s="1">
+        <v>88</v>
+      </c>
+      <c r="H527" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -12211,8 +15381,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G528" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H528" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -12233,8 +15409,14 @@
         <f t="shared" si="17"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G529" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H529" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -12255,8 +15437,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G530" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H530" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -12277,8 +15465,14 @@
         <f t="shared" si="17"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G531" s="1">
+        <v>46</v>
+      </c>
+      <c r="H531" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -12299,8 +15493,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G532" s="1">
+        <v>73</v>
+      </c>
+      <c r="H532" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -12321,8 +15521,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G533" s="1">
+        <v>88</v>
+      </c>
+      <c r="H533" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -12343,8 +15549,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G534" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H534" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -12365,8 +15577,14 @@
         <f t="shared" si="17"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G535" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H535" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -12387,8 +15605,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G536" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H536" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -12409,8 +15633,14 @@
         <f t="shared" si="17"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G537" s="1">
+        <v>46</v>
+      </c>
+      <c r="H537" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -12431,8 +15661,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G538" s="1">
+        <v>73</v>
+      </c>
+      <c r="H538" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -12453,8 +15689,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G539" s="1">
+        <v>88</v>
+      </c>
+      <c r="H539" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -12475,8 +15717,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G540" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H540" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -12497,8 +15745,14 @@
         <f t="shared" si="17"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G541" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H541" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -12519,8 +15773,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G542" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H542" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -12541,8 +15801,14 @@
         <f t="shared" si="17"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G543" s="1">
+        <v>46</v>
+      </c>
+      <c r="H543" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -12563,8 +15829,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G544" s="1">
+        <v>73</v>
+      </c>
+      <c r="H544" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -12585,8 +15857,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G545" s="1">
+        <v>88</v>
+      </c>
+      <c r="H545" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -12607,8 +15885,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G546" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H546" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -12629,8 +15913,14 @@
         <f t="shared" si="17"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G547" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H547" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -12651,8 +15941,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G548" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H548" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -12673,8 +15969,14 @@
         <f t="shared" si="17"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G549" s="1">
+        <v>46</v>
+      </c>
+      <c r="H549" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -12695,8 +15997,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G550" s="1">
+        <v>73</v>
+      </c>
+      <c r="H550" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -12717,8 +16025,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G551" s="1">
+        <v>88</v>
+      </c>
+      <c r="H551" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -12739,8 +16053,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G552" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H552" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -12761,8 +16081,14 @@
         <f t="shared" si="17"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G553" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H553" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -12783,8 +16109,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G554" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H554" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -12805,8 +16137,14 @@
         <f t="shared" si="17"/>
         <v>9000</v>
       </c>
-    </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G555" s="1">
+        <v>46</v>
+      </c>
+      <c r="H555" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -12827,8 +16165,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G556" s="1">
+        <v>73</v>
+      </c>
+      <c r="H556" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -12849,8 +16193,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G557" s="1">
+        <v>88</v>
+      </c>
+      <c r="H557" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -12871,8 +16221,14 @@
         <f t="shared" si="17"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G558" s="1">
+        <v>9001</v>
+      </c>
+      <c r="H558" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -12893,8 +16249,14 @@
         <f t="shared" si="17"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G559" s="2">
+        <v>9008</v>
+      </c>
+      <c r="H559" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -12914,6 +16276,12 @@
       <c r="F560" s="1">
         <f t="shared" si="17"/>
         <v>4000</v>
+      </c>
+      <c r="G560" s="1">
+        <v>9010</v>
+      </c>
+      <c r="H560" s="1">
+        <v>8000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C41DFA-FEEC-457B-9221-A9D0C7016735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9DFC73-36E8-4045-828A-919F0453FA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyPass" sheetId="1" r:id="rId1"/>
+    <sheet name="reward" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MonthlyPass!$C$1:$C$201</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -57,12 +58,107 @@
     <t>unlockAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>reward1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심득조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요도해방서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우불씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내면세계 입장권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술꽃 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요도 해방서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우불씨 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미꽃 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼석 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월 월간 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02월 월간 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 영약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수 기운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수 영약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +195,15 @@
       <color rgb="FF9C0006"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -149,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -167,6 +272,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -488,7 +599,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -529,13 +640,13 @@
         <v>500000</v>
       </c>
       <c r="C2" s="4">
-        <v>8617</v>
+        <v>7296</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>1477</v>
+        <v>1492</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -569,20 +680,20 @@
         <v>1500000</v>
       </c>
       <c r="C4" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D4" s="1">
-        <f>IF(C4=9043,30000,
+        <f>IF(C4=9043,50000,
 IF(C4=9032,3000000,
 IF(C4=9026,30000,
 IF(C4=9016,1000,
-IF(C4=9008,50000,
-IF(C4=9010,15000,
+IF(C4=9062,3000,
+IF(C4=9049,5000,
 IF(C4=9028,1)))))))</f>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E4" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F4" s="1">
         <f>IF(E4=9044,1,
@@ -590,8 +701,8 @@
 IF(E4=9028,2,
 IF(E4=9027,1,
 IF(E4=9017,1,
-IF(E4=9023,2,
-IF(E4=9009,2)))))))</f>
+IF(E4=9063,1,
+IF(E4=9050,1)))))))</f>
         <v>1</v>
       </c>
     </row>
@@ -603,20 +714,20 @@
         <v>2000000</v>
       </c>
       <c r="C5" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D68" si="0">IF(C5=9043,30000,
+        <f t="shared" ref="D5:D68" si="0">IF(C5=9043,50000,
 IF(C5=9032,3000000,
 IF(C5=9026,30000,
 IF(C5=9016,1000,
-IF(C5=9008,50000,
-IF(C5=9010,15000,
+IF(C5=9062,3000,
+IF(C5=9049,5000,
 IF(C5=9028,1)))))))</f>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E5" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ref="F5:F68" si="1">IF(E5=9044,1,
@@ -624,8 +735,8 @@
 IF(E5=9028,2,
 IF(E5=9027,1,
 IF(E5=9017,1,
-IF(E5=9023,2,
-IF(E5=9009,2)))))))</f>
+IF(E5=9063,1,
+IF(E5=9050,1)))))))</f>
         <v>1</v>
       </c>
     </row>
@@ -637,18 +748,18 @@
         <v>2500000</v>
       </c>
       <c r="C6" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E6" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -659,14 +770,14 @@
         <v>3000000</v>
       </c>
       <c r="C7" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E7" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
@@ -681,18 +792,18 @@
         <v>3500000</v>
       </c>
       <c r="C8" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -703,18 +814,18 @@
         <v>4000000</v>
       </c>
       <c r="C9" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E9" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -725,18 +836,18 @@
         <v>4500000</v>
       </c>
       <c r="C10" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -747,14 +858,14 @@
         <v>5000000</v>
       </c>
       <c r="C11" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E11" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
@@ -769,14 +880,14 @@
         <v>5500000</v>
       </c>
       <c r="C12" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E12" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
@@ -791,18 +902,18 @@
         <v>6000000</v>
       </c>
       <c r="C13" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E13" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -813,14 +924,14 @@
         <v>6500000</v>
       </c>
       <c r="C14" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E14" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
@@ -835,18 +946,18 @@
         <v>7000000</v>
       </c>
       <c r="C15" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -857,18 +968,18 @@
         <v>7500000</v>
       </c>
       <c r="C16" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E16" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -879,18 +990,18 @@
         <v>8000000</v>
       </c>
       <c r="C17" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -901,14 +1012,14 @@
         <v>8500000</v>
       </c>
       <c r="C18" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E18" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="1"/>
@@ -923,14 +1034,14 @@
         <v>9000000</v>
       </c>
       <c r="C19" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E19" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="1"/>
@@ -945,18 +1056,18 @@
         <v>9500000</v>
       </c>
       <c r="C20" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E20" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -967,14 +1078,14 @@
         <v>10000000</v>
       </c>
       <c r="C21" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E21" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="1"/>
@@ -989,18 +1100,18 @@
         <v>10500000</v>
       </c>
       <c r="C22" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1011,18 +1122,18 @@
         <v>11000000</v>
       </c>
       <c r="C23" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E23" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1033,18 +1144,18 @@
         <v>11500000</v>
       </c>
       <c r="C24" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1055,14 +1166,14 @@
         <v>12000000</v>
       </c>
       <c r="C25" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E25" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="1"/>
@@ -1077,14 +1188,14 @@
         <v>12500000</v>
       </c>
       <c r="C26" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E26" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="1"/>
@@ -1099,18 +1210,18 @@
         <v>13000000</v>
       </c>
       <c r="C27" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E27" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1121,14 +1232,14 @@
         <v>13500000</v>
       </c>
       <c r="C28" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E28" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="1"/>
@@ -1143,18 +1254,18 @@
         <v>14000000</v>
       </c>
       <c r="C29" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1165,18 +1276,18 @@
         <v>14500000</v>
       </c>
       <c r="C30" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E30" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1187,18 +1298,18 @@
         <v>15000000</v>
       </c>
       <c r="C31" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E31" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1209,14 +1320,14 @@
         <v>15500000</v>
       </c>
       <c r="C32" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E32" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="1"/>
@@ -1231,14 +1342,14 @@
         <v>16000000</v>
       </c>
       <c r="C33" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E33" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="1"/>
@@ -1253,18 +1364,18 @@
         <v>16500000</v>
       </c>
       <c r="C34" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E34" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1275,14 +1386,14 @@
         <v>17000000</v>
       </c>
       <c r="C35" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E35" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="1"/>
@@ -1297,18 +1408,18 @@
         <v>17500000</v>
       </c>
       <c r="C36" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1319,18 +1430,18 @@
         <v>18000000</v>
       </c>
       <c r="C37" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E37" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1341,18 +1452,18 @@
         <v>18500000</v>
       </c>
       <c r="C38" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E38" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1363,14 +1474,14 @@
         <v>19000000</v>
       </c>
       <c r="C39" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E39" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="1"/>
@@ -1385,14 +1496,14 @@
         <v>19500000</v>
       </c>
       <c r="C40" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E40" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="1"/>
@@ -1407,18 +1518,18 @@
         <v>20000000</v>
       </c>
       <c r="C41" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E41" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1429,14 +1540,14 @@
         <v>20500000</v>
       </c>
       <c r="C42" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E42" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="1"/>
@@ -1451,18 +1562,18 @@
         <v>21000000</v>
       </c>
       <c r="C43" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1473,18 +1584,18 @@
         <v>21500000</v>
       </c>
       <c r="C44" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E44" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1495,18 +1606,18 @@
         <v>22000000</v>
       </c>
       <c r="C45" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E45" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1517,14 +1628,14 @@
         <v>22500000</v>
       </c>
       <c r="C46" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E46" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="1"/>
@@ -1539,14 +1650,14 @@
         <v>23000000</v>
       </c>
       <c r="C47" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E47" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="1"/>
@@ -1561,18 +1672,18 @@
         <v>23500000</v>
       </c>
       <c r="C48" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E48" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1583,14 +1694,14 @@
         <v>24000000</v>
       </c>
       <c r="C49" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E49" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="1"/>
@@ -1605,18 +1716,18 @@
         <v>24500000</v>
       </c>
       <c r="C50" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1627,18 +1738,18 @@
         <v>25000000</v>
       </c>
       <c r="C51" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E51" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1649,18 +1760,18 @@
         <v>25500000</v>
       </c>
       <c r="C52" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1671,14 +1782,14 @@
         <v>26000000</v>
       </c>
       <c r="C53" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E53" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" si="1"/>
@@ -1693,14 +1804,14 @@
         <v>26500000</v>
       </c>
       <c r="C54" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E54" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" si="1"/>
@@ -1715,18 +1826,18 @@
         <v>27000000</v>
       </c>
       <c r="C55" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E55" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1737,14 +1848,14 @@
         <v>27500000</v>
       </c>
       <c r="C56" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E56" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" si="1"/>
@@ -1759,18 +1870,18 @@
         <v>28000000</v>
       </c>
       <c r="C57" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E57" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1781,18 +1892,18 @@
         <v>28500000</v>
       </c>
       <c r="C58" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E58" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1803,18 +1914,18 @@
         <v>29000000</v>
       </c>
       <c r="C59" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E59" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1825,14 +1936,14 @@
         <v>29500000</v>
       </c>
       <c r="C60" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E60" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="1"/>
@@ -1847,14 +1958,14 @@
         <v>30000000</v>
       </c>
       <c r="C61" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E61" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="1"/>
@@ -1869,18 +1980,18 @@
         <v>30500000</v>
       </c>
       <c r="C62" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E62" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -1891,14 +2002,14 @@
         <v>31000000</v>
       </c>
       <c r="C63" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E63" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="1"/>
@@ -1913,18 +2024,18 @@
         <v>31500000</v>
       </c>
       <c r="C64" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D64" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E64" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1935,18 +2046,18 @@
         <v>32000000</v>
       </c>
       <c r="C65" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D65" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E65" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -1957,18 +2068,18 @@
         <v>32500000</v>
       </c>
       <c r="C66" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D66" s="1">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E66" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1979,14 +2090,14 @@
         <v>33000000</v>
       </c>
       <c r="C67" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E67" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="1"/>
@@ -2001,14 +2112,14 @@
         <v>33500000</v>
       </c>
       <c r="C68" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E68" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="1"/>
@@ -2023,20 +2134,20 @@
         <v>34000000</v>
       </c>
       <c r="C69" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" ref="D69:D132" si="2">IF(C69=9043,30000,
+        <f t="shared" ref="D69:D132" si="2">IF(C69=9043,50000,
 IF(C69=9032,3000000,
 IF(C69=9026,30000,
 IF(C69=9016,1000,
-IF(C69=9008,50000,
-IF(C69=9010,15000,
+IF(C69=9062,3000,
+IF(C69=9049,5000,
 IF(C69=9028,1)))))))</f>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E69" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" ref="F69:F132" si="3">IF(E69=9044,1,
@@ -2044,9 +2155,9 @@
 IF(E69=9028,2,
 IF(E69=9027,1,
 IF(E69=9017,1,
-IF(E69=9023,2,
-IF(E69=9009,2)))))))</f>
-        <v>2</v>
+IF(E69=9063,1,
+IF(E69=9050,1)))))))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2057,14 +2168,14 @@
         <v>34500000</v>
       </c>
       <c r="C70" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E70" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="3"/>
@@ -2079,18 +2190,18 @@
         <v>35000000</v>
       </c>
       <c r="C71" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E71" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2101,18 +2212,18 @@
         <v>35500000</v>
       </c>
       <c r="C72" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D72" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E72" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2123,18 +2234,18 @@
         <v>36000000</v>
       </c>
       <c r="C73" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E73" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2145,14 +2256,14 @@
         <v>36500000</v>
       </c>
       <c r="C74" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E74" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="3"/>
@@ -2167,14 +2278,14 @@
         <v>37000000</v>
       </c>
       <c r="C75" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D75" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E75" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="3"/>
@@ -2189,18 +2300,18 @@
         <v>37500000</v>
       </c>
       <c r="C76" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D76" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E76" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2211,14 +2322,14 @@
         <v>38000000</v>
       </c>
       <c r="C77" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D77" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E77" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="3"/>
@@ -2233,18 +2344,18 @@
         <v>38500000</v>
       </c>
       <c r="C78" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D78" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2255,18 +2366,18 @@
         <v>39000000</v>
       </c>
       <c r="C79" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D79" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E79" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2277,18 +2388,18 @@
         <v>39500000</v>
       </c>
       <c r="C80" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D80" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E80" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2299,14 +2410,14 @@
         <v>40000000</v>
       </c>
       <c r="C81" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D81" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E81" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="3"/>
@@ -2321,14 +2432,14 @@
         <v>40500000</v>
       </c>
       <c r="C82" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D82" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E82" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="3"/>
@@ -2343,18 +2454,18 @@
         <v>41000000</v>
       </c>
       <c r="C83" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D83" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E83" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2365,14 +2476,14 @@
         <v>41500000</v>
       </c>
       <c r="C84" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D84" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E84" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" si="3"/>
@@ -2387,18 +2498,18 @@
         <v>42000000</v>
       </c>
       <c r="C85" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D85" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E85" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2409,18 +2520,18 @@
         <v>42500000</v>
       </c>
       <c r="C86" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D86" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E86" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2431,18 +2542,18 @@
         <v>43000000</v>
       </c>
       <c r="C87" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D87" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E87" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2453,14 +2564,14 @@
         <v>43500000</v>
       </c>
       <c r="C88" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D88" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E88" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="3"/>
@@ -2475,14 +2586,14 @@
         <v>44000000</v>
       </c>
       <c r="C89" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D89" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E89" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="3"/>
@@ -2497,18 +2608,18 @@
         <v>44500000</v>
       </c>
       <c r="C90" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D90" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E90" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -2519,14 +2630,14 @@
         <v>45000000</v>
       </c>
       <c r="C91" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D91" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E91" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="3"/>
@@ -2541,18 +2652,18 @@
         <v>45500000</v>
       </c>
       <c r="C92" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D92" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E92" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -2563,18 +2674,18 @@
         <v>46000000</v>
       </c>
       <c r="C93" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D93" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E93" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -2585,18 +2696,18 @@
         <v>46500000</v>
       </c>
       <c r="C94" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D94" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E94" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -2607,14 +2718,14 @@
         <v>47000000</v>
       </c>
       <c r="C95" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D95" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E95" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" si="3"/>
@@ -2629,14 +2740,14 @@
         <v>47500000</v>
       </c>
       <c r="C96" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D96" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E96" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" si="3"/>
@@ -2651,18 +2762,18 @@
         <v>48000000</v>
       </c>
       <c r="C97" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D97" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E97" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -2673,14 +2784,14 @@
         <v>48500000</v>
       </c>
       <c r="C98" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D98" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E98" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" si="3"/>
@@ -2695,18 +2806,18 @@
         <v>49000000</v>
       </c>
       <c r="C99" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D99" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E99" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -2717,18 +2828,18 @@
         <v>49500000</v>
       </c>
       <c r="C100" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D100" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E100" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -2739,18 +2850,18 @@
         <v>50000000</v>
       </c>
       <c r="C101" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D101" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E101" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -2761,14 +2872,14 @@
         <v>50500000</v>
       </c>
       <c r="C102" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D102" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E102" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="3"/>
@@ -2783,14 +2894,14 @@
         <v>51000000</v>
       </c>
       <c r="C103" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D103" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E103" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="3"/>
@@ -2805,18 +2916,18 @@
         <v>51500000</v>
       </c>
       <c r="C104" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D104" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E104" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -2827,14 +2938,14 @@
         <v>52000000</v>
       </c>
       <c r="C105" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D105" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E105" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="3"/>
@@ -2849,18 +2960,18 @@
         <v>52500000</v>
       </c>
       <c r="C106" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D106" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E106" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -2871,18 +2982,18 @@
         <v>53000000</v>
       </c>
       <c r="C107" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D107" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E107" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F107" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -2893,18 +3004,18 @@
         <v>53500000</v>
       </c>
       <c r="C108" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D108" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E108" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F108" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -2915,14 +3026,14 @@
         <v>54000000</v>
       </c>
       <c r="C109" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D109" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E109" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" si="3"/>
@@ -2937,14 +3048,14 @@
         <v>54500000</v>
       </c>
       <c r="C110" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D110" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E110" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F110" s="1">
         <f t="shared" si="3"/>
@@ -2959,18 +3070,18 @@
         <v>55000000</v>
       </c>
       <c r="C111" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D111" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E111" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F111" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -2981,14 +3092,14 @@
         <v>55500000</v>
       </c>
       <c r="C112" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D112" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E112" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F112" s="1">
         <f t="shared" si="3"/>
@@ -3003,18 +3114,18 @@
         <v>56000000</v>
       </c>
       <c r="C113" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D113" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E113" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F113" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3025,18 +3136,18 @@
         <v>56500000</v>
       </c>
       <c r="C114" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D114" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E114" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F114" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3047,18 +3158,18 @@
         <v>57000000</v>
       </c>
       <c r="C115" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D115" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E115" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F115" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3069,14 +3180,14 @@
         <v>57500000</v>
       </c>
       <c r="C116" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D116" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E116" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F116" s="1">
         <f t="shared" si="3"/>
@@ -3091,14 +3202,14 @@
         <v>58000000</v>
       </c>
       <c r="C117" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D117" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E117" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F117" s="1">
         <f t="shared" si="3"/>
@@ -3113,18 +3224,18 @@
         <v>58500000</v>
       </c>
       <c r="C118" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D118" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E118" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F118" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3135,14 +3246,14 @@
         <v>59000000</v>
       </c>
       <c r="C119" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D119" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E119" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F119" s="1">
         <f t="shared" si="3"/>
@@ -3157,18 +3268,18 @@
         <v>59500000</v>
       </c>
       <c r="C120" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D120" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E120" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F120" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -3179,18 +3290,18 @@
         <v>60000000</v>
       </c>
       <c r="C121" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D121" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E121" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F121" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -3201,18 +3312,18 @@
         <v>60500000</v>
       </c>
       <c r="C122" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D122" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E122" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F122" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -3223,14 +3334,14 @@
         <v>61000000</v>
       </c>
       <c r="C123" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D123" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E123" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F123" s="1">
         <f t="shared" si="3"/>
@@ -3245,14 +3356,14 @@
         <v>61500000</v>
       </c>
       <c r="C124" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D124" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E124" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F124" s="1">
         <f t="shared" si="3"/>
@@ -3267,18 +3378,18 @@
         <v>62000000</v>
       </c>
       <c r="C125" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D125" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E125" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F125" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -3289,14 +3400,14 @@
         <v>62500000</v>
       </c>
       <c r="C126" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D126" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E126" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F126" s="1">
         <f t="shared" si="3"/>
@@ -3311,18 +3422,18 @@
         <v>63000000</v>
       </c>
       <c r="C127" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D127" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E127" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F127" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3333,18 +3444,18 @@
         <v>63500000</v>
       </c>
       <c r="C128" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D128" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E128" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F128" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3355,18 +3466,18 @@
         <v>64000000</v>
       </c>
       <c r="C129" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D129" s="1">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E129" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F129" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -3377,14 +3488,14 @@
         <v>64500000</v>
       </c>
       <c r="C130" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D130" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E130" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F130" s="1">
         <f t="shared" si="3"/>
@@ -3399,14 +3510,14 @@
         <v>65000000</v>
       </c>
       <c r="C131" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D131" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E131" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F131" s="1">
         <f t="shared" si="3"/>
@@ -3421,18 +3532,18 @@
         <v>65500000</v>
       </c>
       <c r="C132" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D132" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E132" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F132" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3443,20 +3554,20 @@
         <v>66000000</v>
       </c>
       <c r="C133" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D133" s="1">
-        <f t="shared" ref="D133:D196" si="4">IF(C133=9043,30000,
+        <f t="shared" ref="D133:D196" si="4">IF(C133=9043,50000,
 IF(C133=9032,3000000,
 IF(C133=9026,30000,
 IF(C133=9016,1000,
-IF(C133=9008,50000,
-IF(C133=9010,15000,
+IF(C133=9062,3000,
+IF(C133=9049,5000,
 IF(C133=9028,1)))))))</f>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E133" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F133" s="1">
         <f t="shared" ref="F133:F196" si="5">IF(E133=9044,1,
@@ -3464,8 +3575,8 @@
 IF(E133=9028,2,
 IF(E133=9027,1,
 IF(E133=9017,1,
-IF(E133=9023,2,
-IF(E133=9009,2)))))))</f>
+IF(E133=9063,1,
+IF(E133=9050,1)))))))</f>
         <v>1</v>
       </c>
     </row>
@@ -3477,18 +3588,18 @@
         <v>66500000</v>
       </c>
       <c r="C134" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D134" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E134" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F134" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -3499,18 +3610,18 @@
         <v>67000000</v>
       </c>
       <c r="C135" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D135" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E135" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F135" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -3521,18 +3632,18 @@
         <v>67500000</v>
       </c>
       <c r="C136" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D136" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E136" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F136" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -3543,14 +3654,14 @@
         <v>68000000</v>
       </c>
       <c r="C137" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D137" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E137" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F137" s="1">
         <f t="shared" si="5"/>
@@ -3565,14 +3676,14 @@
         <v>68500000</v>
       </c>
       <c r="C138" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D138" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E138" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F138" s="1">
         <f t="shared" si="5"/>
@@ -3587,18 +3698,18 @@
         <v>69000000</v>
       </c>
       <c r="C139" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D139" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E139" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F139" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -3609,14 +3720,14 @@
         <v>69500000</v>
       </c>
       <c r="C140" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D140" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E140" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F140" s="1">
         <f t="shared" si="5"/>
@@ -3631,18 +3742,18 @@
         <v>70000000</v>
       </c>
       <c r="C141" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D141" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E141" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F141" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -3653,18 +3764,18 @@
         <v>70500000</v>
       </c>
       <c r="C142" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D142" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E142" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F142" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -3675,18 +3786,18 @@
         <v>71000000</v>
       </c>
       <c r="C143" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D143" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E143" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F143" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -3697,14 +3808,14 @@
         <v>71500000</v>
       </c>
       <c r="C144" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D144" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E144" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F144" s="1">
         <f t="shared" si="5"/>
@@ -3719,14 +3830,14 @@
         <v>72000000</v>
       </c>
       <c r="C145" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D145" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E145" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F145" s="1">
         <f t="shared" si="5"/>
@@ -3741,18 +3852,18 @@
         <v>72500000</v>
       </c>
       <c r="C146" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D146" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E146" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F146" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -3763,14 +3874,14 @@
         <v>73000000</v>
       </c>
       <c r="C147" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D147" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E147" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F147" s="1">
         <f t="shared" si="5"/>
@@ -3785,18 +3896,18 @@
         <v>73500000</v>
       </c>
       <c r="C148" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D148" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E148" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F148" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -3807,18 +3918,18 @@
         <v>74000000</v>
       </c>
       <c r="C149" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D149" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E149" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F149" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -3829,18 +3940,18 @@
         <v>74500000</v>
       </c>
       <c r="C150" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D150" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E150" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F150" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -3851,14 +3962,14 @@
         <v>75000000</v>
       </c>
       <c r="C151" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D151" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E151" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F151" s="1">
         <f t="shared" si="5"/>
@@ -3873,14 +3984,14 @@
         <v>75500000</v>
       </c>
       <c r="C152" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D152" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E152" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F152" s="1">
         <f t="shared" si="5"/>
@@ -3895,18 +4006,18 @@
         <v>76000000</v>
       </c>
       <c r="C153" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D153" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E153" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F153" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -3917,14 +4028,14 @@
         <v>76500000</v>
       </c>
       <c r="C154" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D154" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E154" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F154" s="1">
         <f t="shared" si="5"/>
@@ -3939,18 +4050,18 @@
         <v>77000000</v>
       </c>
       <c r="C155" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D155" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E155" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F155" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -3961,18 +4072,18 @@
         <v>77500000</v>
       </c>
       <c r="C156" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D156" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E156" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F156" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -3983,18 +4094,18 @@
         <v>78000000</v>
       </c>
       <c r="C157" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D157" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E157" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F157" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -4005,14 +4116,14 @@
         <v>78500000</v>
       </c>
       <c r="C158" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D158" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E158" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F158" s="1">
         <f t="shared" si="5"/>
@@ -4027,14 +4138,14 @@
         <v>79000000</v>
       </c>
       <c r="C159" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D159" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E159" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F159" s="1">
         <f t="shared" si="5"/>
@@ -4049,18 +4160,18 @@
         <v>79500000</v>
       </c>
       <c r="C160" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D160" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E160" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F160" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4071,14 +4182,14 @@
         <v>80000000</v>
       </c>
       <c r="C161" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D161" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E161" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F161" s="1">
         <f t="shared" si="5"/>
@@ -4093,18 +4204,18 @@
         <v>80500000</v>
       </c>
       <c r="C162" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D162" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E162" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F162" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -4115,18 +4226,18 @@
         <v>81000000</v>
       </c>
       <c r="C163" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D163" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E163" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F163" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -4137,18 +4248,18 @@
         <v>81500000</v>
       </c>
       <c r="C164" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D164" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E164" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F164" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -4159,14 +4270,14 @@
         <v>82000000</v>
       </c>
       <c r="C165" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D165" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E165" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F165" s="1">
         <f t="shared" si="5"/>
@@ -4181,14 +4292,14 @@
         <v>82500000</v>
       </c>
       <c r="C166" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D166" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E166" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F166" s="1">
         <f t="shared" si="5"/>
@@ -4203,18 +4314,18 @@
         <v>83000000</v>
       </c>
       <c r="C167" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D167" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E167" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F167" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -4225,14 +4336,14 @@
         <v>83500000</v>
       </c>
       <c r="C168" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D168" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E168" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F168" s="1">
         <f t="shared" si="5"/>
@@ -4247,18 +4358,18 @@
         <v>84000000</v>
       </c>
       <c r="C169" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D169" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E169" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F169" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -4269,18 +4380,18 @@
         <v>84500000</v>
       </c>
       <c r="C170" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D170" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E170" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F170" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -4291,18 +4402,18 @@
         <v>85000000</v>
       </c>
       <c r="C171" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D171" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E171" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F171" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -4313,14 +4424,14 @@
         <v>85500000</v>
       </c>
       <c r="C172" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D172" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E172" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F172" s="1">
         <f t="shared" si="5"/>
@@ -4335,14 +4446,14 @@
         <v>86000000</v>
       </c>
       <c r="C173" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D173" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E173" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F173" s="1">
         <f t="shared" si="5"/>
@@ -4357,18 +4468,18 @@
         <v>86500000</v>
       </c>
       <c r="C174" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D174" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E174" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F174" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -4379,14 +4490,14 @@
         <v>87000000</v>
       </c>
       <c r="C175" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D175" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E175" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F175" s="1">
         <f t="shared" si="5"/>
@@ -4401,18 +4512,18 @@
         <v>87500000</v>
       </c>
       <c r="C176" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D176" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E176" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F176" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -4423,18 +4534,18 @@
         <v>88000000</v>
       </c>
       <c r="C177" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D177" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E177" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F177" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -4445,18 +4556,18 @@
         <v>88500000</v>
       </c>
       <c r="C178" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D178" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E178" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F178" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -4467,14 +4578,14 @@
         <v>89000000</v>
       </c>
       <c r="C179" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D179" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E179" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F179" s="1">
         <f t="shared" si="5"/>
@@ -4489,14 +4600,14 @@
         <v>89500000</v>
       </c>
       <c r="C180" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D180" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E180" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F180" s="1">
         <f t="shared" si="5"/>
@@ -4511,18 +4622,18 @@
         <v>90000000</v>
       </c>
       <c r="C181" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D181" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E181" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F181" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -4533,14 +4644,14 @@
         <v>90500000</v>
       </c>
       <c r="C182" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D182" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E182" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F182" s="1">
         <f t="shared" si="5"/>
@@ -4555,18 +4666,18 @@
         <v>91000000</v>
       </c>
       <c r="C183" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D183" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E183" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F183" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -4577,18 +4688,18 @@
         <v>91500000</v>
       </c>
       <c r="C184" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D184" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E184" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F184" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -4599,18 +4710,18 @@
         <v>92000000</v>
       </c>
       <c r="C185" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D185" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E185" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F185" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -4621,14 +4732,14 @@
         <v>92500000</v>
       </c>
       <c r="C186" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D186" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E186" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F186" s="1">
         <f t="shared" si="5"/>
@@ -4643,14 +4754,14 @@
         <v>93000000</v>
       </c>
       <c r="C187" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D187" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E187" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F187" s="1">
         <f t="shared" si="5"/>
@@ -4665,18 +4776,18 @@
         <v>93500000</v>
       </c>
       <c r="C188" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D188" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E188" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F188" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -4687,14 +4798,14 @@
         <v>94000000</v>
       </c>
       <c r="C189" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D189" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E189" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F189" s="1">
         <f t="shared" si="5"/>
@@ -4709,18 +4820,18 @@
         <v>94500000</v>
       </c>
       <c r="C190" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D190" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E190" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F190" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -4731,18 +4842,18 @@
         <v>95000000</v>
       </c>
       <c r="C191" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D191" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E191" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F191" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -4753,18 +4864,18 @@
         <v>95500000</v>
       </c>
       <c r="C192" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D192" s="1">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E192" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F192" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -4775,14 +4886,14 @@
         <v>96000000</v>
       </c>
       <c r="C193" s="1">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="D193" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E193" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F193" s="1">
         <f t="shared" si="5"/>
@@ -4797,14 +4908,14 @@
         <v>96500000</v>
       </c>
       <c r="C194" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D194" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E194" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F194" s="1">
         <f t="shared" si="5"/>
@@ -4819,18 +4930,18 @@
         <v>97000000</v>
       </c>
       <c r="C195" s="1">
-        <v>9028</v>
+        <v>9043</v>
       </c>
       <c r="D195" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>50000</v>
       </c>
       <c r="E195" s="1">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F195" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -4841,14 +4952,14 @@
         <v>97500000</v>
       </c>
       <c r="C196" s="1">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="D196" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>3000000</v>
       </c>
       <c r="E196" s="1">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F196" s="1">
         <f t="shared" si="5"/>
@@ -4863,20 +4974,20 @@
         <v>98000000</v>
       </c>
       <c r="C197" s="5">
-        <v>9016</v>
+        <v>9028</v>
       </c>
       <c r="D197" s="1">
-        <f t="shared" ref="D197:D201" si="6">IF(C197=9043,30000,
+        <f t="shared" ref="D197:D201" si="6">IF(C197=9043,50000,
 IF(C197=9032,3000000,
 IF(C197=9026,30000,
 IF(C197=9016,1000,
-IF(C197=9008,50000,
-IF(C197=9010,15000,
+IF(C197=9062,3000,
+IF(C197=9049,5000,
 IF(C197=9028,1)))))))</f>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E197" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F197" s="1">
         <f t="shared" ref="F197:F201" si="7">IF(E197=9044,1,
@@ -4884,9 +4995,9 @@
 IF(E197=9028,2,
 IF(E197=9027,1,
 IF(E197=9017,1,
-IF(E197=9023,2,
-IF(E197=9009,2)))))))</f>
-        <v>1</v>
+IF(E197=9063,1,
+IF(E197=9050,1)))))))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -4897,18 +5008,18 @@
         <v>98500000</v>
       </c>
       <c r="C198" s="1">
-        <v>9008</v>
+        <v>9026</v>
       </c>
       <c r="D198" s="1">
         <f t="shared" si="6"/>
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="E198" s="1">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F198" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -4919,18 +5030,18 @@
         <v>99000000</v>
       </c>
       <c r="C199" s="1">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="D199" s="1">
         <f t="shared" si="6"/>
-        <v>15000</v>
+        <v>1000</v>
       </c>
       <c r="E199" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="F199" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -4940,15 +5051,15 @@
       <c r="B200" s="1">
         <v>99500000</v>
       </c>
-      <c r="C200" s="5">
-        <v>9043</v>
+      <c r="C200" s="1">
+        <v>9062</v>
       </c>
       <c r="D200" s="1">
         <f t="shared" si="6"/>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="E200" s="1">
-        <v>9044</v>
+        <v>9063</v>
       </c>
       <c r="F200" s="1">
         <f t="shared" si="7"/>
@@ -4963,14 +5074,14 @@
         <v>100000000</v>
       </c>
       <c r="C201" s="1">
-        <v>9032</v>
+        <v>9049</v>
       </c>
       <c r="D201" s="1">
         <f t="shared" si="6"/>
-        <v>3000000</v>
+        <v>5000</v>
       </c>
       <c r="E201" s="1">
-        <v>9033</v>
+        <v>9050</v>
       </c>
       <c r="F201" s="1">
         <f t="shared" si="7"/>
@@ -4983,4 +5094,374 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC11C41B-BAE3-4BB5-A5B6-C03451EB1BD8}">
+  <dimension ref="B3:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>9043</v>
+      </c>
+      <c r="D5" s="7">
+        <f>SUMIF(MonthlyPass!C:C,reward!C5,MonthlyPass!D:D)</f>
+        <v>1400000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>9044</v>
+      </c>
+      <c r="G5" s="7">
+        <f>SUMIF(MonthlyPass!E:E,reward!F5,MonthlyPass!F:F)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>9032</v>
+      </c>
+      <c r="D6" s="7">
+        <f>SUMIF(MonthlyPass!C:C,reward!C6,MonthlyPass!D:D)</f>
+        <v>84000000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>9033</v>
+      </c>
+      <c r="G6" s="7">
+        <f>SUMIF(MonthlyPass!E:E,reward!F6,MonthlyPass!F:F)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>9028</v>
+      </c>
+      <c r="D7" s="7">
+        <f>SUMIF(MonthlyPass!C:C,reward!C7,MonthlyPass!D:D)</f>
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>9028</v>
+      </c>
+      <c r="G7" s="7">
+        <f>SUMIF(MonthlyPass!E:E,reward!F7,MonthlyPass!F:F)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>9026</v>
+      </c>
+      <c r="D8" s="7">
+        <f>SUMIF(MonthlyPass!C:C,reward!C8,MonthlyPass!D:D)</f>
+        <v>840000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>9027</v>
+      </c>
+      <c r="G8" s="7">
+        <f>SUMIF(MonthlyPass!E:E,reward!F8,MonthlyPass!F:F)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>9016</v>
+      </c>
+      <c r="D9" s="7">
+        <f>SUMIF(MonthlyPass!C:C,reward!C9,MonthlyPass!D:D)</f>
+        <v>28000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>9017</v>
+      </c>
+      <c r="G9" s="7">
+        <f>SUMIF(MonthlyPass!E:E,reward!F9,MonthlyPass!F:F)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>9008</v>
+      </c>
+      <c r="D10" s="7">
+        <f>SUMIF(MonthlyPass!C:C,reward!C10,MonthlyPass!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>9009</v>
+      </c>
+      <c r="G10" s="7">
+        <f>SUMIF(MonthlyPass!E:E,reward!F10,MonthlyPass!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>9010</v>
+      </c>
+      <c r="D11" s="7">
+        <f>SUMIF(MonthlyPass!C:C,reward!C11,MonthlyPass!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>9023</v>
+      </c>
+      <c r="G11" s="7">
+        <f>SUMIF(MonthlyPass!E:E,reward!F11,MonthlyPass!F:F)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>9062</v>
+      </c>
+      <c r="D15" s="7">
+        <f>SUMIF(MonthlyPass!C:C,reward!C15,MonthlyPass!D:D)</f>
+        <v>87000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>9063</v>
+      </c>
+      <c r="G15" s="7">
+        <f>SUMIF(MonthlyPass!E:E,reward!F15,MonthlyPass!F:F)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>9049</v>
+      </c>
+      <c r="D16" s="7">
+        <f>SUMIF(MonthlyPass!C:C,reward!C16,MonthlyPass!D:D)</f>
+        <v>145000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>9050</v>
+      </c>
+      <c r="G16" s="7">
+        <f>SUMIF(MonthlyPass!E:E,reward!F16,MonthlyPass!F:F)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>9043</v>
+      </c>
+      <c r="D17" s="7">
+        <f>SUMIF(MonthlyPass!C:C,reward!C17,MonthlyPass!D:D)</f>
+        <v>1400000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>9044</v>
+      </c>
+      <c r="G17" s="7">
+        <f>SUMIF(MonthlyPass!E:E,reward!F17,MonthlyPass!F:F)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>9032</v>
+      </c>
+      <c r="D18" s="7">
+        <f>SUMIF(MonthlyPass!C:C,reward!C18,MonthlyPass!D:D)</f>
+        <v>84000000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>9033</v>
+      </c>
+      <c r="G18" s="7">
+        <f>SUMIF(MonthlyPass!E:E,reward!F18,MonthlyPass!F:F)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>9028</v>
+      </c>
+      <c r="D19" s="7">
+        <f>SUMIF(MonthlyPass!C:C,reward!C19,MonthlyPass!D:D)</f>
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>9028</v>
+      </c>
+      <c r="G19" s="7">
+        <f>SUMIF(MonthlyPass!E:E,reward!F19,MonthlyPass!F:F)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>9026</v>
+      </c>
+      <c r="D20" s="7">
+        <f>SUMIF(MonthlyPass!C:C,reward!C20,MonthlyPass!D:D)</f>
+        <v>840000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>9027</v>
+      </c>
+      <c r="G20" s="7">
+        <f>SUMIF(MonthlyPass!E:E,reward!F20,MonthlyPass!F:F)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>9016</v>
+      </c>
+      <c r="D21" s="7">
+        <f>SUMIF(MonthlyPass!C:C,reward!C21,MonthlyPass!D:D)</f>
+        <v>28000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>9017</v>
+      </c>
+      <c r="G21" s="7">
+        <f>SUMIF(MonthlyPass!E:E,reward!F21,MonthlyPass!F:F)</f>
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9DFC73-36E8-4045-828A-919F0453FA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F8C21D-92D2-4BEF-B5BE-1352EFC73EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -300,9 +300,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -340,7 +340,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -446,7 +446,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -588,7 +588,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -599,7 +599,7 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -640,13 +640,13 @@
         <v>500000</v>
       </c>
       <c r="C2" s="4">
-        <v>7296</v>
+        <v>2020</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>1492</v>
+        <v>1514</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -683,14 +683,14 @@
         <v>9062</v>
       </c>
       <c r="D4" s="1">
-        <f>IF(C4=9043,50000,
-IF(C4=9032,3000000,
-IF(C4=9026,30000,
-IF(C4=9016,1000,
-IF(C4=9062,3000,
-IF(C4=9049,5000,
+        <f>IF(C4=9043,70000,
+IF(C4=9032,4000000,
+IF(C4=9026,40000,
+IF(C4=9016,1400,
+IF(C4=9062,4000,
+IF(C4=9049,6000,
 IF(C4=9028,1)))))))</f>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E4" s="1">
         <v>9063</v>
@@ -717,14 +717,14 @@
         <v>9049</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D68" si="0">IF(C5=9043,50000,
-IF(C5=9032,3000000,
-IF(C5=9026,30000,
-IF(C5=9016,1000,
-IF(C5=9062,3000,
-IF(C5=9049,5000,
+        <f t="shared" ref="D5:D68" si="0">IF(C5=9043,70000,
+IF(C5=9032,4000000,
+IF(C5=9026,40000,
+IF(C5=9016,1400,
+IF(C5=9062,4000,
+IF(C5=9049,6000,
 IF(C5=9028,1)))))))</f>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E5" s="1">
         <v>9050</v>
@@ -752,7 +752,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E6" s="1">
         <v>9044</v>
@@ -774,7 +774,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E7" s="1">
         <v>9033</v>
@@ -818,7 +818,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E9" s="1">
         <v>9027</v>
@@ -840,7 +840,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E10" s="1">
         <v>9017</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E11" s="1">
         <v>9063</v>
@@ -884,7 +884,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E12" s="1">
         <v>9050</v>
@@ -906,7 +906,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E13" s="1">
         <v>9044</v>
@@ -928,7 +928,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E14" s="1">
         <v>9033</v>
@@ -972,7 +972,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E16" s="1">
         <v>9027</v>
@@ -994,7 +994,7 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E17" s="1">
         <v>9017</v>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E18" s="1">
         <v>9063</v>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E19" s="1">
         <v>9050</v>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E20" s="1">
         <v>9044</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E21" s="1">
         <v>9033</v>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E23" s="1">
         <v>9027</v>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E24" s="1">
         <v>9017</v>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E25" s="1">
         <v>9063</v>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E26" s="1">
         <v>9050</v>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E27" s="1">
         <v>9044</v>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E28" s="1">
         <v>9033</v>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E30" s="1">
         <v>9027</v>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E31" s="1">
         <v>9017</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E32" s="1">
         <v>9063</v>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E33" s="1">
         <v>9050</v>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E34" s="1">
         <v>9044</v>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E35" s="1">
         <v>9033</v>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E37" s="1">
         <v>9027</v>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E38" s="1">
         <v>9017</v>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E39" s="1">
         <v>9063</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E40" s="1">
         <v>9050</v>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="D41" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E41" s="1">
         <v>9044</v>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E42" s="1">
         <v>9033</v>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E44" s="1">
         <v>9027</v>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="D45" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E45" s="1">
         <v>9017</v>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="D46" s="1">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E46" s="1">
         <v>9063</v>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="D47" s="1">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E47" s="1">
         <v>9050</v>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="D48" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E48" s="1">
         <v>9044</v>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="D49" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E49" s="1">
         <v>9033</v>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="D51" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E51" s="1">
         <v>9027</v>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="D52" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E52" s="1">
         <v>9017</v>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="D53" s="1">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E53" s="1">
         <v>9063</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="D54" s="1">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E54" s="1">
         <v>9050</v>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="D55" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E55" s="1">
         <v>9044</v>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="D56" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E56" s="1">
         <v>9033</v>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="D58" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E58" s="1">
         <v>9027</v>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="D59" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E59" s="1">
         <v>9017</v>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="D60" s="1">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E60" s="1">
         <v>9063</v>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="D61" s="1">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E61" s="1">
         <v>9050</v>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="D62" s="1">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E62" s="1">
         <v>9044</v>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="D63" s="1">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E63" s="1">
         <v>9033</v>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="D65" s="1">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E65" s="1">
         <v>9027</v>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="D66" s="1">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E66" s="1">
         <v>9017</v>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="D67" s="1">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E67" s="1">
         <v>9063</v>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="D68" s="1">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E68" s="1">
         <v>9050</v>
@@ -2137,14 +2137,14 @@
         <v>9043</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" ref="D69:D132" si="2">IF(C69=9043,50000,
-IF(C69=9032,3000000,
-IF(C69=9026,30000,
-IF(C69=9016,1000,
-IF(C69=9062,3000,
-IF(C69=9049,5000,
+        <f t="shared" ref="D69:D132" si="2">IF(C69=9043,70000,
+IF(C69=9032,4000000,
+IF(C69=9026,40000,
+IF(C69=9016,1400,
+IF(C69=9062,4000,
+IF(C69=9049,6000,
 IF(C69=9028,1)))))))</f>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E69" s="1">
         <v>9044</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="D70" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E70" s="1">
         <v>9033</v>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="D72" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E72" s="1">
         <v>9027</v>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="D73" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E73" s="1">
         <v>9017</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="D74" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E74" s="1">
         <v>9063</v>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="D75" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E75" s="1">
         <v>9050</v>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="D76" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E76" s="1">
         <v>9044</v>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="D77" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E77" s="1">
         <v>9033</v>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="D79" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E79" s="1">
         <v>9027</v>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="D80" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E80" s="1">
         <v>9017</v>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="D81" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E81" s="1">
         <v>9063</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="D82" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E82" s="1">
         <v>9050</v>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="D83" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E83" s="1">
         <v>9044</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="D84" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E84" s="1">
         <v>9033</v>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="D86" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E86" s="1">
         <v>9027</v>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="D87" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E87" s="1">
         <v>9017</v>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="D88" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E88" s="1">
         <v>9063</v>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="D89" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E89" s="1">
         <v>9050</v>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="D90" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E90" s="1">
         <v>9044</v>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="D91" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E91" s="1">
         <v>9033</v>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D93" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E93" s="1">
         <v>9027</v>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="D94" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E94" s="1">
         <v>9017</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="D95" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E95" s="1">
         <v>9063</v>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="D96" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E96" s="1">
         <v>9050</v>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="D97" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E97" s="1">
         <v>9044</v>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="D98" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E98" s="1">
         <v>9033</v>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="D100" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E100" s="1">
         <v>9027</v>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="D101" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E101" s="1">
         <v>9017</v>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="D102" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E102" s="1">
         <v>9063</v>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="D103" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E103" s="1">
         <v>9050</v>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="D104" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E104" s="1">
         <v>9044</v>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="D105" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E105" s="1">
         <v>9033</v>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="D107" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E107" s="1">
         <v>9027</v>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="D108" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E108" s="1">
         <v>9017</v>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="D109" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E109" s="1">
         <v>9063</v>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="D110" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E110" s="1">
         <v>9050</v>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="D111" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E111" s="1">
         <v>9044</v>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="D112" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E112" s="1">
         <v>9033</v>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="D114" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E114" s="1">
         <v>9027</v>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="D115" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E115" s="1">
         <v>9017</v>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="D116" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E116" s="1">
         <v>9063</v>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="D117" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E117" s="1">
         <v>9050</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="D118" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E118" s="1">
         <v>9044</v>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="D119" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E119" s="1">
         <v>9033</v>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="D121" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E121" s="1">
         <v>9027</v>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="D122" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E122" s="1">
         <v>9017</v>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="D123" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E123" s="1">
         <v>9063</v>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="D124" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E124" s="1">
         <v>9050</v>
@@ -3382,7 +3382,7 @@
       </c>
       <c r="D125" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E125" s="1">
         <v>9044</v>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="D126" s="1">
         <f t="shared" si="2"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E126" s="1">
         <v>9033</v>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="D128" s="1">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E128" s="1">
         <v>9027</v>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="D129" s="1">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E129" s="1">
         <v>9017</v>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="D130" s="1">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E130" s="1">
         <v>9063</v>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="D131" s="1">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E131" s="1">
         <v>9050</v>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="D132" s="1">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E132" s="1">
         <v>9044</v>
@@ -3557,14 +3557,14 @@
         <v>9032</v>
       </c>
       <c r="D133" s="1">
-        <f t="shared" ref="D133:D196" si="4">IF(C133=9043,50000,
-IF(C133=9032,3000000,
-IF(C133=9026,30000,
-IF(C133=9016,1000,
-IF(C133=9062,3000,
-IF(C133=9049,5000,
+        <f t="shared" ref="D133:D196" si="4">IF(C133=9043,70000,
+IF(C133=9032,4000000,
+IF(C133=9026,40000,
+IF(C133=9016,1400,
+IF(C133=9062,4000,
+IF(C133=9049,6000,
 IF(C133=9028,1)))))))</f>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E133" s="1">
         <v>9033</v>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="D135" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E135" s="1">
         <v>9027</v>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="D136" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E136" s="1">
         <v>9017</v>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="D137" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E137" s="1">
         <v>9063</v>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="D138" s="1">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E138" s="1">
         <v>9050</v>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="D139" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E139" s="1">
         <v>9044</v>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="D140" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E140" s="1">
         <v>9033</v>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="D142" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E142" s="1">
         <v>9027</v>
@@ -3790,7 +3790,7 @@
       </c>
       <c r="D143" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E143" s="1">
         <v>9017</v>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="D144" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E144" s="1">
         <v>9063</v>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="D145" s="1">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E145" s="1">
         <v>9050</v>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="D146" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E146" s="1">
         <v>9044</v>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="D147" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E147" s="1">
         <v>9033</v>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="D149" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E149" s="1">
         <v>9027</v>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="D150" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E150" s="1">
         <v>9017</v>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="D151" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E151" s="1">
         <v>9063</v>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="D152" s="1">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E152" s="1">
         <v>9050</v>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="D153" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E153" s="1">
         <v>9044</v>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="D154" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E154" s="1">
         <v>9033</v>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="D156" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E156" s="1">
         <v>9027</v>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="D157" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E157" s="1">
         <v>9017</v>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="D158" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E158" s="1">
         <v>9063</v>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="D159" s="1">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E159" s="1">
         <v>9050</v>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="D160" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E160" s="1">
         <v>9044</v>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="D161" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E161" s="1">
         <v>9033</v>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="D163" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E163" s="1">
         <v>9027</v>
@@ -4252,7 +4252,7 @@
       </c>
       <c r="D164" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E164" s="1">
         <v>9017</v>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="D165" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E165" s="1">
         <v>9063</v>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="D166" s="1">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E166" s="1">
         <v>9050</v>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="D167" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E167" s="1">
         <v>9044</v>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="D168" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E168" s="1">
         <v>9033</v>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="D170" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E170" s="1">
         <v>9027</v>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="D171" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E171" s="1">
         <v>9017</v>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="D172" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E172" s="1">
         <v>9063</v>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="D173" s="1">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E173" s="1">
         <v>9050</v>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="D174" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E174" s="1">
         <v>9044</v>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="D175" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E175" s="1">
         <v>9033</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="D177" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E177" s="1">
         <v>9027</v>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="D178" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E178" s="1">
         <v>9017</v>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="D179" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E179" s="1">
         <v>9063</v>
@@ -4604,7 +4604,7 @@
       </c>
       <c r="D180" s="1">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E180" s="1">
         <v>9050</v>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="D181" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E181" s="1">
         <v>9044</v>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="D182" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E182" s="1">
         <v>9033</v>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="D184" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E184" s="1">
         <v>9027</v>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="D185" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E185" s="1">
         <v>9017</v>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="D186" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E186" s="1">
         <v>9063</v>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="D187" s="1">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E187" s="1">
         <v>9050</v>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="D188" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E188" s="1">
         <v>9044</v>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="D189" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E189" s="1">
         <v>9033</v>
@@ -4846,7 +4846,7 @@
       </c>
       <c r="D191" s="1">
         <f t="shared" si="4"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E191" s="1">
         <v>9027</v>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="D192" s="1">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E192" s="1">
         <v>9017</v>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="D193" s="1">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E193" s="1">
         <v>9063</v>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="D194" s="1">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E194" s="1">
         <v>9050</v>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="D195" s="1">
         <f t="shared" si="4"/>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E195" s="1">
         <v>9044</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="D196" s="1">
         <f t="shared" si="4"/>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="E196" s="1">
         <v>9033</v>
@@ -4977,12 +4977,12 @@
         <v>9028</v>
       </c>
       <c r="D197" s="1">
-        <f t="shared" ref="D197:D201" si="6">IF(C197=9043,50000,
-IF(C197=9032,3000000,
-IF(C197=9026,30000,
-IF(C197=9016,1000,
-IF(C197=9062,3000,
-IF(C197=9049,5000,
+        <f t="shared" ref="D197:D201" si="6">IF(C197=9043,70000,
+IF(C197=9032,4000000,
+IF(C197=9026,40000,
+IF(C197=9016,1400,
+IF(C197=9062,4000,
+IF(C197=9049,6000,
 IF(C197=9028,1)))))))</f>
         <v>1</v>
       </c>
@@ -5012,7 +5012,7 @@
       </c>
       <c r="D198" s="1">
         <f t="shared" si="6"/>
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E198" s="1">
         <v>9027</v>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="D199" s="1">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E199" s="1">
         <v>9017</v>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="D200" s="1">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E200" s="1">
         <v>9063</v>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="D201" s="1">
         <f t="shared" si="6"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="E201" s="1">
         <v>9050</v>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="D5" s="7">
         <f>SUMIF(MonthlyPass!C:C,reward!C5,MonthlyPass!D:D)</f>
-        <v>1400000</v>
+        <v>1960000</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="D6" s="7">
         <f>SUMIF(MonthlyPass!C:C,reward!C6,MonthlyPass!D:D)</f>
-        <v>84000000</v>
+        <v>112000000</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="D8" s="7">
         <f>SUMIF(MonthlyPass!C:C,reward!C8,MonthlyPass!D:D)</f>
-        <v>840000</v>
+        <v>1120000</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="D9" s="7">
         <f>SUMIF(MonthlyPass!C:C,reward!C9,MonthlyPass!D:D)</f>
-        <v>28000</v>
+        <v>39200</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="D15" s="7">
         <f>SUMIF(MonthlyPass!C:C,reward!C15,MonthlyPass!D:D)</f>
-        <v>87000</v>
+        <v>116000</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="D16" s="7">
         <f>SUMIF(MonthlyPass!C:C,reward!C16,MonthlyPass!D:D)</f>
-        <v>145000</v>
+        <v>174000</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="D17" s="7">
         <f>SUMIF(MonthlyPass!C:C,reward!C17,MonthlyPass!D:D)</f>
-        <v>1400000</v>
+        <v>1960000</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="D18" s="7">
         <f>SUMIF(MonthlyPass!C:C,reward!C18,MonthlyPass!D:D)</f>
-        <v>84000000</v>
+        <v>112000000</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="D20" s="7">
         <f>SUMIF(MonthlyPass!C:C,reward!C20,MonthlyPass!D:D)</f>
-        <v>840000</v>
+        <v>1120000</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="D21" s="7">
         <f>SUMIF(MonthlyPass!C:C,reward!C21,MonthlyPass!D:D)</f>
-        <v>28000</v>
+        <v>39200</v>
       </c>
       <c r="E21" t="s">
         <v>20</v>

--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8020DA6-4475-4403-9346-7FA87C2A23AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918EC980-14FD-46A8-AB2E-9AC2FD2319C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyPass" sheetId="1" r:id="rId1"/>
@@ -650,7 +650,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -691,13 +691,13 @@
         <v>2500000</v>
       </c>
       <c r="C2" s="4">
-        <v>2031</v>
+        <v>2038</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>1540</v>
+        <v>1556</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>

--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918EC980-14FD-46A8-AB2E-9AC2FD2319C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEBB10B-FEB3-4724-91DF-5BD6E9FAB102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -691,13 +691,13 @@
         <v>2500000</v>
       </c>
       <c r="C2" s="4">
-        <v>2038</v>
+        <v>2044</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>1556</v>
+        <v>1562</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>

--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEBB10B-FEB3-4724-91DF-5BD6E9FAB102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F13078-F357-49F9-BC5F-FDAF7DFE7B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -691,13 +691,13 @@
         <v>2500000</v>
       </c>
       <c r="C2" s="4">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
